--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{9D251A80-82D0-4B74-9252-8D19F0B6521D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C9B0C491-F7F3-41EC-876F-A894686F7E82}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bible_data_ch_verses" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +552,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -713,11 +719,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1072,14 +1079,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1130,7 @@
       <c r="J1" s="3">
         <v>9</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="3">
         <v>10</v>
       </c>
       <c r="L1" s="1">
@@ -1484,7 +1491,7 @@
       <c r="K3">
         <v>29</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>10</v>
       </c>
       <c r="M3">
@@ -2119,7 +2126,7 @@
       <c r="P7">
         <v>63</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>10</v>
       </c>
       <c r="R7">
@@ -3326,7 +3333,7 @@
       <c r="G18">
         <v>14</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>10</v>
       </c>
       <c r="I18">
@@ -3353,7 +3360,7 @@
       <c r="P18">
         <v>24</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="2">
         <v>10</v>
       </c>
       <c r="AL18" t="s">
@@ -3555,7 +3562,7 @@
       <c r="H20">
         <v>18</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>10</v>
       </c>
       <c r="J20">
@@ -3591,7 +3598,7 @@
       <c r="T20">
         <v>15</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="4">
         <v>10</v>
       </c>
       <c r="V20">
@@ -3603,7 +3610,7 @@
       <c r="X20">
         <v>6</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="2">
         <v>10</v>
       </c>
       <c r="Z20">
@@ -3672,7 +3679,7 @@
       <c r="AU20">
         <v>12</v>
       </c>
-      <c r="AV20">
+      <c r="AV20" s="2">
         <v>10</v>
       </c>
       <c r="AW20">
@@ -3874,10 +3881,10 @@
       <c r="K22">
         <v>7</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <v>10</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="2">
         <v>10</v>
       </c>
       <c r="N22" s="2">
@@ -3964,7 +3971,7 @@
       <c r="AO22">
         <v>14</v>
       </c>
-      <c r="AP22">
+      <c r="AP22" s="2">
         <v>10</v>
       </c>
       <c r="AQ22">
@@ -3979,7 +3986,7 @@
       <c r="AT22">
         <v>21</v>
       </c>
-      <c r="AU22">
+      <c r="AU22" s="2">
         <v>10</v>
       </c>
       <c r="AV22">
@@ -4127,7 +4134,7 @@
       <c r="K24">
         <v>20</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <v>10</v>
       </c>
       <c r="M24">
@@ -4269,7 +4276,7 @@
       <c r="AI26">
         <v>17</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ26" s="2">
         <v>10</v>
       </c>
       <c r="AK26">
@@ -4439,7 +4446,7 @@
       <c r="X27">
         <v>40</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="2">
         <v>10</v>
       </c>
       <c r="Z27">
@@ -4554,7 +4561,7 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>10</v>
       </c>
       <c r="D29">
@@ -4786,7 +4793,7 @@
       <c r="N31">
         <v>15</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="2">
         <v>10</v>
       </c>
     </row>
@@ -4857,7 +4864,7 @@
       <c r="C35">
         <v>11</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>10</v>
       </c>
       <c r="E35">
@@ -4953,7 +4960,7 @@
       <c r="C41">
         <v>17</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>10</v>
       </c>
       <c r="E41">
@@ -5614,7 +5621,7 @@
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>10</v>
       </c>
       <c r="C55">
@@ -5808,7 +5815,7 @@
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>10</v>
       </c>
       <c r="C65">

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C9B0C491-F7F3-41EC-876F-A894686F7E82}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CFE8903-B752-4CD1-A1C7-3C8DA6A8589B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,8 +371,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +564,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -719,12 +731,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1083,10 +1098,10 @@
   <dimension ref="A1:BO69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,10 +1148,10 @@
       <c r="K1" s="3">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="3">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="5">
         <v>12</v>
       </c>
       <c r="N1" s="1">
@@ -2025,7 +2040,7 @@
       <c r="AH6">
         <v>29</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="6">
         <v>12</v>
       </c>
       <c r="AJ6" t="s">
@@ -2381,7 +2396,7 @@
       <c r="E10">
         <v>22</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>12</v>
       </c>
       <c r="G10">
@@ -2447,13 +2462,13 @@
       <c r="AA10">
         <v>25</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="6">
         <v>12</v>
       </c>
       <c r="AC10">
         <v>25</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="2">
         <v>11</v>
       </c>
       <c r="AE10">
@@ -2518,7 +2533,7 @@
       <c r="D11">
         <v>39</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>12</v>
       </c>
       <c r="F11">
@@ -3051,7 +3066,7 @@
       <c r="S15">
         <v>34</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="2">
         <v>11</v>
       </c>
       <c r="U15">
@@ -3060,7 +3075,7 @@
       <c r="V15">
         <v>20</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="6">
         <v>12</v>
       </c>
       <c r="X15">
@@ -3152,7 +3167,7 @@
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>11</v>
       </c>
       <c r="C16">
@@ -3229,7 +3244,7 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>11</v>
       </c>
       <c r="C17">
@@ -3544,7 +3559,7 @@
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>11</v>
       </c>
       <c r="D20" s="2">
@@ -3556,7 +3571,7 @@
       <c r="F20">
         <v>13</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>11</v>
       </c>
       <c r="H20">
@@ -3586,7 +3601,7 @@
       <c r="P20">
         <v>5</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="2">
         <v>11</v>
       </c>
       <c r="R20">
@@ -3616,7 +3631,7 @@
       <c r="Z20">
         <v>22</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="2">
         <v>11</v>
       </c>
       <c r="AB20">
@@ -3625,7 +3640,7 @@
       <c r="AC20" s="2">
         <v>9</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="2">
         <v>11</v>
       </c>
       <c r="AE20">
@@ -3634,7 +3649,7 @@
       <c r="AF20">
         <v>25</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="2">
         <v>11</v>
       </c>
       <c r="AH20">
@@ -3664,7 +3679,7 @@
       <c r="AP20">
         <v>14</v>
       </c>
-      <c r="AQ20">
+      <c r="AQ20" s="6">
         <v>12</v>
       </c>
       <c r="AR20">
@@ -3676,7 +3691,7 @@
       <c r="AT20">
         <v>18</v>
       </c>
-      <c r="AU20">
+      <c r="AU20" s="6">
         <v>12</v>
       </c>
       <c r="AV20" s="2">
@@ -3699,7 +3714,7 @@
       <c r="B21">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>11</v>
       </c>
       <c r="D21">
@@ -3714,10 +3729,10 @@
       <c r="G21">
         <v>14</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <v>12</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="6">
         <v>12</v>
       </c>
       <c r="J21">
@@ -3732,10 +3747,10 @@
       <c r="M21">
         <v>13</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="6">
         <v>12</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="2">
         <v>11</v>
       </c>
       <c r="P21">
@@ -3768,7 +3783,7 @@
       <c r="Y21">
         <v>23</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="2">
         <v>11</v>
       </c>
       <c r="AA21">
@@ -3828,13 +3843,13 @@
       <c r="AS21">
         <v>23</v>
       </c>
-      <c r="AT21">
+      <c r="AT21" s="2">
         <v>11</v>
       </c>
       <c r="AU21">
         <v>13</v>
       </c>
-      <c r="AV21">
+      <c r="AV21" s="6">
         <v>12</v>
       </c>
       <c r="AW21" s="2">
@@ -3977,7 +3992,7 @@
       <c r="AQ22">
         <v>8</v>
       </c>
-      <c r="AR22">
+      <c r="AR22" s="6">
         <v>12</v>
       </c>
       <c r="AS22">
@@ -4119,7 +4134,7 @@
       <c r="F24">
         <v>19</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="6">
         <v>12</v>
       </c>
       <c r="H24">
@@ -4151,7 +4166,7 @@
       <c r="C25">
         <v>17</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>11</v>
       </c>
       <c r="E25">
@@ -4160,7 +4175,7 @@
       <c r="F25">
         <v>16</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="6">
         <v>12</v>
       </c>
       <c r="H25">
@@ -4246,7 +4261,7 @@
       <c r="Y26">
         <v>23</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="6">
         <v>12</v>
       </c>
       <c r="AA26">
@@ -4321,7 +4336,7 @@
       <c r="AX26">
         <v>26</v>
       </c>
-      <c r="AY26">
+      <c r="AY26" s="2">
         <v>11</v>
       </c>
       <c r="AZ26">
@@ -4330,7 +4345,7 @@
       <c r="BA26">
         <v>15</v>
       </c>
-      <c r="BB26">
+      <c r="BB26" s="6">
         <v>12</v>
       </c>
       <c r="BC26">
@@ -4339,7 +4354,7 @@
       <c r="BD26">
         <v>13</v>
       </c>
-      <c r="BE26">
+      <c r="BE26" s="6">
         <v>12</v>
       </c>
       <c r="BF26">
@@ -4354,16 +4369,16 @@
       <c r="BI26">
         <v>22</v>
       </c>
-      <c r="BJ26">
+      <c r="BJ26" s="2">
         <v>11</v>
       </c>
-      <c r="BK26">
+      <c r="BK26" s="6">
         <v>12</v>
       </c>
       <c r="BL26">
         <v>19</v>
       </c>
-      <c r="BM26">
+      <c r="BM26" s="2">
         <v>11</v>
       </c>
       <c r="BN26">
@@ -4582,7 +4597,7 @@
       <c r="I29">
         <v>18</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <v>11</v>
       </c>
       <c r="K29">
@@ -4769,7 +4784,7 @@
       <c r="F31">
         <v>15</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>11</v>
       </c>
       <c r="H31">
@@ -4784,7 +4799,7 @@
       <c r="K31">
         <v>15</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="2">
         <v>11</v>
       </c>
       <c r="M31">
@@ -4861,13 +4876,13 @@
       <c r="B35">
         <v>16</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>11</v>
       </c>
       <c r="D35" s="2">
         <v>10</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>11</v>
       </c>
     </row>
@@ -4881,7 +4896,7 @@
       <c r="C36">
         <v>13</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>12</v>
       </c>
       <c r="E36">
@@ -4966,7 +4981,7 @@
       <c r="E41">
         <v>14</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>11</v>
       </c>
       <c r="G41">
@@ -4981,7 +4996,7 @@
       <c r="J41">
         <v>17</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="6">
         <v>12</v>
       </c>
       <c r="L41">
@@ -5641,7 +5656,7 @@
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="6">
         <v>12</v>
       </c>
       <c r="C56">
@@ -5868,7 +5883,7 @@
       <c r="D69">
         <v>22</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>11</v>
       </c>
       <c r="F69">
@@ -5886,7 +5901,7 @@
       <c r="J69">
         <v>21</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="2">
         <v>11</v>
       </c>
       <c r="L69">

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CFE8903-B752-4CD1-A1C7-3C8DA6A8589B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E1D8687-9DEB-4F0F-B34F-C885F69FEDD3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,7 +1101,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1151,13 +1151,13 @@
       <c r="L1" s="3">
         <v>11</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="3">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="3">
         <v>13</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="5">
         <v>14</v>
       </c>
       <c r="P1" s="1">
@@ -1891,7 +1891,7 @@
       <c r="AJ5">
         <v>34</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="2">
         <v>13</v>
       </c>
       <c r="AL5" t="s">
@@ -2040,7 +2040,7 @@
       <c r="AH6">
         <v>29</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="2">
         <v>12</v>
       </c>
       <c r="AJ6" t="s">
@@ -2263,7 +2263,7 @@
       <c r="Q8">
         <v>31</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
         <v>13</v>
       </c>
       <c r="S8">
@@ -2396,7 +2396,7 @@
       <c r="E10">
         <v>22</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="2">
         <v>12</v>
       </c>
       <c r="G10">
@@ -2462,7 +2462,7 @@
       <c r="AA10">
         <v>25</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="2">
         <v>12</v>
       </c>
       <c r="AC10">
@@ -2474,7 +2474,7 @@
       <c r="AE10">
         <v>31</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="2">
         <v>13</v>
       </c>
       <c r="AL10" t="s">
@@ -2533,7 +2533,7 @@
       <c r="D11">
         <v>39</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="2">
         <v>12</v>
       </c>
       <c r="F11">
@@ -2548,7 +2548,7 @@
       <c r="I11">
         <v>18</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>13</v>
       </c>
       <c r="K11">
@@ -2905,7 +2905,7 @@
       <c r="J14">
         <v>44</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="6">
         <v>14</v>
       </c>
       <c r="L14">
@@ -2914,7 +2914,7 @@
       <c r="M14">
         <v>41</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="6">
         <v>14</v>
       </c>
       <c r="O14">
@@ -3024,7 +3024,7 @@
       <c r="E15">
         <v>22</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>14</v>
       </c>
       <c r="G15">
@@ -3051,13 +3051,13 @@
       <c r="N15">
         <v>23</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="6">
         <v>14</v>
       </c>
       <c r="P15">
         <v>19</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="6">
         <v>14</v>
       </c>
       <c r="R15">
@@ -3075,7 +3075,7 @@
       <c r="V15">
         <v>20</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="2">
         <v>12</v>
       </c>
       <c r="X15">
@@ -3173,7 +3173,7 @@
       <c r="C16">
         <v>70</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>13</v>
       </c>
       <c r="E16">
@@ -3342,10 +3342,10 @@
       <c r="E18">
         <v>17</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>14</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>14</v>
       </c>
       <c r="H18" s="2">
@@ -3428,7 +3428,7 @@
       <c r="B19">
         <v>22</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>13</v>
       </c>
       <c r="D19">
@@ -3500,7 +3500,7 @@
       <c r="Z19">
         <v>6</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="6">
         <v>14</v>
       </c>
       <c r="AB19">
@@ -3568,7 +3568,7 @@
       <c r="E20" s="2">
         <v>9</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>13</v>
       </c>
       <c r="G20" s="2">
@@ -3616,7 +3616,7 @@
       <c r="U20" s="4">
         <v>10</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="6">
         <v>14</v>
       </c>
       <c r="W20">
@@ -3634,7 +3634,7 @@
       <c r="AA20" s="2">
         <v>11</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="6">
         <v>14</v>
       </c>
       <c r="AC20" s="2">
@@ -3643,7 +3643,7 @@
       <c r="AD20" s="2">
         <v>11</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="2">
         <v>13</v>
       </c>
       <c r="AF20">
@@ -3661,7 +3661,7 @@
       <c r="AJ20">
         <v>28</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" s="2">
         <v>13</v>
       </c>
       <c r="AL20">
@@ -3670,16 +3670,16 @@
       <c r="AM20">
         <v>23</v>
       </c>
-      <c r="AN20">
+      <c r="AN20" s="6">
         <v>14</v>
       </c>
       <c r="AO20">
         <v>18</v>
       </c>
-      <c r="AP20">
+      <c r="AP20" s="6">
         <v>14</v>
       </c>
-      <c r="AQ20" s="6">
+      <c r="AQ20" s="2">
         <v>12</v>
       </c>
       <c r="AR20">
@@ -3691,7 +3691,7 @@
       <c r="AT20">
         <v>18</v>
       </c>
-      <c r="AU20" s="6">
+      <c r="AU20" s="2">
         <v>12</v>
       </c>
       <c r="AV20" s="2">
@@ -3726,34 +3726,34 @@
       <c r="F21">
         <v>24</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6">
         <v>14</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="2">
         <v>12</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="2">
         <v>12</v>
       </c>
       <c r="J21">
         <v>18</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="6">
         <v>14</v>
       </c>
       <c r="L21" s="2">
         <v>9</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="2">
         <v>13</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="2">
         <v>12</v>
       </c>
       <c r="O21" s="2">
         <v>11</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="6">
         <v>14</v>
       </c>
       <c r="Q21">
@@ -3786,7 +3786,7 @@
       <c r="Z21" s="2">
         <v>11</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="2">
         <v>13</v>
       </c>
       <c r="AB21">
@@ -3795,7 +3795,7 @@
       <c r="AC21">
         <v>72</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="2">
         <v>13</v>
       </c>
       <c r="AE21">
@@ -3810,10 +3810,10 @@
       <c r="AH21">
         <v>19</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="2">
         <v>13</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" s="6">
         <v>14</v>
       </c>
       <c r="AK21">
@@ -3846,10 +3846,10 @@
       <c r="AT21" s="2">
         <v>11</v>
       </c>
-      <c r="AU21">
+      <c r="AU21" s="2">
         <v>13</v>
       </c>
-      <c r="AV21" s="6">
+      <c r="AV21" s="2">
         <v>12</v>
       </c>
       <c r="AW21" s="2">
@@ -3887,7 +3887,7 @@
       <c r="H22">
         <v>43</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="6">
         <v>14</v>
       </c>
       <c r="J22">
@@ -3983,7 +3983,7 @@
       <c r="AN22">
         <v>24</v>
       </c>
-      <c r="AO22">
+      <c r="AO22" s="6">
         <v>14</v>
       </c>
       <c r="AP22" s="2">
@@ -3992,7 +3992,7 @@
       <c r="AQ22">
         <v>8</v>
       </c>
-      <c r="AR22" s="6">
+      <c r="AR22" s="2">
         <v>12</v>
       </c>
       <c r="AS22">
@@ -4007,7 +4007,7 @@
       <c r="AV22">
         <v>20</v>
       </c>
-      <c r="AW22">
+      <c r="AW22" s="6">
         <v>14</v>
       </c>
       <c r="AX22" s="2">
@@ -4134,7 +4134,7 @@
       <c r="F24">
         <v>19</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="2">
         <v>12</v>
       </c>
       <c r="H24">
@@ -4152,7 +4152,7 @@
       <c r="L24" s="2">
         <v>10</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="6">
         <v>14</v>
       </c>
     </row>
@@ -4175,13 +4175,13 @@
       <c r="F25">
         <v>16</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="2">
         <v>12</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="6">
         <v>14</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6">
         <v>14</v>
       </c>
     </row>
@@ -4204,7 +4204,7 @@
       <c r="F26">
         <v>30</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>13</v>
       </c>
       <c r="H26">
@@ -4234,10 +4234,10 @@
       <c r="P26" s="2">
         <v>9</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="6">
         <v>14</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="6">
         <v>14</v>
       </c>
       <c r="S26">
@@ -4261,13 +4261,13 @@
       <c r="Y26">
         <v>23</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="Z26" s="2">
         <v>12</v>
       </c>
       <c r="AA26">
         <v>21</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="2">
         <v>13</v>
       </c>
       <c r="AC26">
@@ -4324,7 +4324,7 @@
       <c r="AT26">
         <v>25</v>
       </c>
-      <c r="AU26">
+      <c r="AU26" s="2">
         <v>13</v>
       </c>
       <c r="AV26">
@@ -4345,22 +4345,22 @@
       <c r="BA26">
         <v>15</v>
       </c>
-      <c r="BB26" s="6">
+      <c r="BB26" s="2">
         <v>12</v>
       </c>
       <c r="BC26">
         <v>17</v>
       </c>
-      <c r="BD26">
+      <c r="BD26" s="2">
         <v>13</v>
       </c>
-      <c r="BE26" s="6">
+      <c r="BE26" s="2">
         <v>12</v>
       </c>
       <c r="BF26">
         <v>21</v>
       </c>
-      <c r="BG26">
+      <c r="BG26" s="6">
         <v>14</v>
       </c>
       <c r="BH26">
@@ -4372,7 +4372,7 @@
       <c r="BJ26" s="2">
         <v>11</v>
       </c>
-      <c r="BK26" s="6">
+      <c r="BK26" s="2">
         <v>12</v>
       </c>
       <c r="BL26">
@@ -4452,7 +4452,7 @@
       <c r="U27">
         <v>18</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="6">
         <v>14</v>
       </c>
       <c r="W27">
@@ -4518,7 +4518,7 @@
       <c r="AQ27">
         <v>22</v>
       </c>
-      <c r="AR27">
+      <c r="AR27" s="2">
         <v>13</v>
       </c>
       <c r="AS27">
@@ -4588,7 +4588,7 @@
       <c r="F29">
         <v>17</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="6">
         <v>14</v>
       </c>
       <c r="H29">
@@ -4627,7 +4627,7 @@
       <c r="S29">
         <v>32</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="6">
         <v>14</v>
       </c>
       <c r="U29">
@@ -4755,7 +4755,7 @@
       <c r="L30">
         <v>45</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="2">
         <v>13</v>
       </c>
       <c r="N30">
@@ -4790,7 +4790,7 @@
       <c r="H31">
         <v>16</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="6">
         <v>14</v>
       </c>
       <c r="J31">
@@ -4842,19 +4842,19 @@
       <c r="D33">
         <v>15</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>13</v>
       </c>
       <c r="F33">
         <v>27</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="6">
         <v>14</v>
       </c>
       <c r="H33">
         <v>17</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="6">
         <v>14</v>
       </c>
       <c r="J33">
@@ -4893,16 +4893,16 @@
       <c r="B36">
         <v>16</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>13</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="2">
         <v>12</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>14</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>14</v>
       </c>
       <c r="G36">
@@ -4916,10 +4916,10 @@
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>14</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>14</v>
       </c>
       <c r="D37">
@@ -4978,7 +4978,7 @@
       <c r="D41" s="2">
         <v>10</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>14</v>
       </c>
       <c r="F41" s="2">
@@ -4987,7 +4987,7 @@
       <c r="G41">
         <v>15</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="6">
         <v>14</v>
       </c>
       <c r="I41">
@@ -4996,13 +4996,13 @@
       <c r="J41">
         <v>17</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="2">
         <v>12</v>
       </c>
       <c r="L41">
         <v>17</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="6">
         <v>14</v>
       </c>
       <c r="N41" s="2">
@@ -5016,7 +5016,7 @@
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>14</v>
       </c>
       <c r="C42">
@@ -5442,7 +5442,7 @@
       <c r="M48">
         <v>21</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="6">
         <v>14</v>
       </c>
       <c r="O48">
@@ -5471,7 +5471,7 @@
       <c r="E49">
         <v>21</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>13</v>
       </c>
       <c r="G49">
@@ -5480,7 +5480,7 @@
       <c r="H49">
         <v>40</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="2">
         <v>13</v>
       </c>
       <c r="J49">
@@ -5495,7 +5495,7 @@
       <c r="M49">
         <v>31</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="2">
         <v>13</v>
       </c>
       <c r="O49">
@@ -5548,7 +5548,7 @@
       <c r="M50">
         <v>21</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="2">
         <v>13</v>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       <c r="C55">
         <v>20</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>13</v>
       </c>
       <c r="E55">
@@ -5656,7 +5656,7 @@
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="2">
         <v>12</v>
       </c>
       <c r="C56">
@@ -5732,7 +5732,7 @@
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>14</v>
       </c>
       <c r="C61">
@@ -5744,7 +5744,7 @@
       <c r="E61">
         <v>16</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>14</v>
       </c>
       <c r="G61">
@@ -5753,7 +5753,7 @@
       <c r="H61">
         <v>28</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <v>13</v>
       </c>
       <c r="J61">
@@ -5788,7 +5788,7 @@
       <c r="E62">
         <v>17</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>20</v>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
       <c r="E63">
         <v>19</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <v>14</v>
       </c>
     </row>
@@ -5825,6 +5825,7 @@
       <c r="D64">
         <v>18</v>
       </c>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -5842,7 +5843,7 @@
       <c r="E65">
         <v>21</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <v>21</v>
       </c>
     </row>
@@ -5850,9 +5851,10 @@
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>13</v>
       </c>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -5861,6 +5863,7 @@
       <c r="B67">
         <v>15</v>
       </c>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -5869,6 +5872,7 @@
       <c r="B68">
         <v>25</v>
       </c>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -5886,7 +5890,7 @@
       <c r="E69" s="2">
         <v>11</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <v>14</v>
       </c>
       <c r="G69">
@@ -5895,7 +5899,7 @@
       <c r="H69">
         <v>17</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <v>13</v>
       </c>
       <c r="J69">

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E1D8687-9DEB-4F0F-B34F-C885F69FEDD3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DCFD6655-F171-42F2-B2E1-BB9DBDD2BFF3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,12 +564,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -731,14 +725,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1101,7 +1093,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1149,7 @@
       <c r="N1" s="3">
         <v>13</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="3">
         <v>14</v>
       </c>
       <c r="P1" s="1">
@@ -2905,7 +2897,7 @@
       <c r="J14">
         <v>44</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="2">
         <v>14</v>
       </c>
       <c r="L14">
@@ -2914,7 +2906,7 @@
       <c r="M14">
         <v>41</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="2">
         <v>14</v>
       </c>
       <c r="O14">
@@ -3051,13 +3043,13 @@
       <c r="N15">
         <v>23</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="2">
         <v>14</v>
       </c>
       <c r="P15">
         <v>19</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="2">
         <v>14</v>
       </c>
       <c r="R15">
@@ -3167,7 +3159,7 @@
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>11</v>
       </c>
       <c r="C16">
@@ -3244,7 +3236,7 @@
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>11</v>
       </c>
       <c r="C17">
@@ -3500,7 +3492,7 @@
       <c r="Z19">
         <v>6</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="2">
         <v>14</v>
       </c>
       <c r="AB19">
@@ -3616,7 +3608,7 @@
       <c r="U20" s="4">
         <v>10</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="2">
         <v>14</v>
       </c>
       <c r="W20">
@@ -3634,7 +3626,7 @@
       <c r="AA20" s="2">
         <v>11</v>
       </c>
-      <c r="AB20" s="6">
+      <c r="AB20" s="2">
         <v>14</v>
       </c>
       <c r="AC20" s="2">
@@ -3670,13 +3662,13 @@
       <c r="AM20">
         <v>23</v>
       </c>
-      <c r="AN20" s="6">
+      <c r="AN20" s="2">
         <v>14</v>
       </c>
       <c r="AO20">
         <v>18</v>
       </c>
-      <c r="AP20" s="6">
+      <c r="AP20" s="2">
         <v>14</v>
       </c>
       <c r="AQ20" s="2">
@@ -3726,7 +3718,7 @@
       <c r="F21">
         <v>24</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="2">
         <v>14</v>
       </c>
       <c r="H21" s="2">
@@ -3738,7 +3730,7 @@
       <c r="J21">
         <v>18</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="2">
         <v>14</v>
       </c>
       <c r="L21" s="2">
@@ -3753,7 +3745,7 @@
       <c r="O21" s="2">
         <v>11</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="2">
         <v>14</v>
       </c>
       <c r="Q21">
@@ -3813,7 +3805,7 @@
       <c r="AI21" s="2">
         <v>13</v>
       </c>
-      <c r="AJ21" s="6">
+      <c r="AJ21" s="2">
         <v>14</v>
       </c>
       <c r="AK21">
@@ -3887,7 +3879,7 @@
       <c r="H22">
         <v>43</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="2">
         <v>14</v>
       </c>
       <c r="J22">
@@ -3983,7 +3975,7 @@
       <c r="AN22">
         <v>24</v>
       </c>
-      <c r="AO22" s="6">
+      <c r="AO22" s="2">
         <v>14</v>
       </c>
       <c r="AP22" s="2">
@@ -4007,7 +3999,7 @@
       <c r="AV22">
         <v>20</v>
       </c>
-      <c r="AW22" s="6">
+      <c r="AW22" s="2">
         <v>14</v>
       </c>
       <c r="AX22" s="2">
@@ -4152,7 +4144,7 @@
       <c r="L24" s="2">
         <v>10</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="2">
         <v>14</v>
       </c>
     </row>
@@ -4178,10 +4170,10 @@
       <c r="G25" s="2">
         <v>12</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="2">
         <v>14</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="2">
         <v>14</v>
       </c>
     </row>
@@ -4234,10 +4226,10 @@
       <c r="P26" s="2">
         <v>9</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q26" s="2">
         <v>14</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="2">
         <v>14</v>
       </c>
       <c r="S26">
@@ -4360,7 +4352,7 @@
       <c r="BF26">
         <v>21</v>
       </c>
-      <c r="BG26" s="6">
+      <c r="BG26" s="2">
         <v>14</v>
       </c>
       <c r="BH26">
@@ -4452,7 +4444,7 @@
       <c r="U27">
         <v>18</v>
       </c>
-      <c r="V27" s="6">
+      <c r="V27" s="2">
         <v>14</v>
       </c>
       <c r="W27">
@@ -4588,7 +4580,7 @@
       <c r="F29">
         <v>17</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="2">
         <v>14</v>
       </c>
       <c r="H29">
@@ -4627,7 +4619,7 @@
       <c r="S29">
         <v>32</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="2">
         <v>14</v>
       </c>
       <c r="U29">
@@ -4790,7 +4782,7 @@
       <c r="H31">
         <v>16</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="2">
         <v>14</v>
       </c>
       <c r="J31">
@@ -4848,13 +4840,13 @@
       <c r="F33">
         <v>27</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="2">
         <v>14</v>
       </c>
       <c r="H33">
         <v>17</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="2">
         <v>14</v>
       </c>
       <c r="J33">
@@ -4987,7 +4979,7 @@
       <c r="G41">
         <v>15</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="2">
         <v>14</v>
       </c>
       <c r="I41">
@@ -5002,7 +4994,7 @@
       <c r="L41">
         <v>17</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="2">
         <v>14</v>
       </c>
       <c r="N41" s="2">
@@ -5442,7 +5434,7 @@
       <c r="M48">
         <v>21</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48" s="2">
         <v>14</v>
       </c>
       <c r="O48">

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DCFD6655-F171-42F2-B2E1-BB9DBDD2BFF3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{43A11AB3-F650-4E44-8A25-4A32D79062DE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,45 +169,9 @@
     <t>Rom</t>
   </si>
   <si>
-    <t>1 Cor</t>
-  </si>
-  <si>
-    <t>2 Cor</t>
-  </si>
-  <si>
-    <t>Gal</t>
-  </si>
-  <si>
-    <t>Eph</t>
-  </si>
-  <si>
-    <t>Phil</t>
-  </si>
-  <si>
-    <t>Col</t>
-  </si>
-  <si>
-    <t>1Thess</t>
-  </si>
-  <si>
-    <t>2Thess</t>
-  </si>
-  <si>
-    <t>1 Tim</t>
-  </si>
-  <si>
-    <t>2 Tim</t>
-  </si>
-  <si>
     <t>Titus</t>
   </si>
   <si>
-    <t>Phlm</t>
-  </si>
-  <si>
-    <t>Heb</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
@@ -229,7 +193,43 @@
     <t>Jude</t>
   </si>
   <si>
-    <t>Rev</t>
+    <t>Ephesians</t>
+  </si>
+  <si>
+    <t>Philippians</t>
+  </si>
+  <si>
+    <t>Colossians</t>
+  </si>
+  <si>
+    <t>1 Corinthians</t>
+  </si>
+  <si>
+    <t>2 Corinthians</t>
+  </si>
+  <si>
+    <t>1 Thessalonians</t>
+  </si>
+  <si>
+    <t>2 Thessalonians</t>
+  </si>
+  <si>
+    <t>1 Timothy</t>
+  </si>
+  <si>
+    <t>2 Timothy</t>
+  </si>
+  <si>
+    <t>Phileman</t>
+  </si>
+  <si>
+    <t>Hebrews</t>
+  </si>
+  <si>
+    <t>Revelation</t>
+  </si>
+  <si>
+    <t>Galatians</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1093,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
+      <selection pane="bottomRight" activeCell="AT22" sqref="AT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,25 +1152,25 @@
       <c r="O1" s="3">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="3">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="3">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="3">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="3">
         <v>18</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="3">
         <v>19</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="3">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="3">
         <v>21</v>
       </c>
       <c r="W1" s="1">
@@ -1346,19 +1346,19 @@
       <c r="L2">
         <v>32</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>20</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>18</v>
       </c>
       <c r="O2">
         <v>24</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>21</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>16</v>
       </c>
       <c r="R2">
@@ -1370,7 +1370,7 @@
       <c r="T2">
         <v>38</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="2">
         <v>18</v>
       </c>
       <c r="V2">
@@ -1379,7 +1379,7 @@
       <c r="W2">
         <v>24</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="2">
         <v>20</v>
       </c>
       <c r="Y2">
@@ -1409,7 +1409,7 @@
       <c r="AG2">
         <v>33</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="2">
         <v>20</v>
       </c>
       <c r="AI2">
@@ -1516,7 +1516,7 @@
       <c r="Q3">
         <v>36</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>16</v>
       </c>
       <c r="S3">
@@ -1537,7 +1537,7 @@
       <c r="X3">
         <v>33</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="2">
         <v>18</v>
       </c>
       <c r="Z3">
@@ -1546,7 +1546,7 @@
       <c r="AA3">
         <v>37</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="2">
         <v>21</v>
       </c>
       <c r="AC3">
@@ -1558,7 +1558,7 @@
       <c r="AE3">
         <v>38</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="2">
         <v>18</v>
       </c>
       <c r="AG3">
@@ -1623,13 +1623,13 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>17</v>
       </c>
       <c r="E4">
@@ -1650,7 +1650,7 @@
       <c r="J4">
         <v>24</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>20</v>
       </c>
       <c r="L4">
@@ -1671,7 +1671,7 @@
       <c r="Q4">
         <v>34</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>16</v>
       </c>
       <c r="S4">
@@ -1811,7 +1811,7 @@
       <c r="L5">
         <v>35</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>16</v>
       </c>
       <c r="N5">
@@ -1850,7 +1850,7 @@
       <c r="Y5">
         <v>25</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="2">
         <v>19</v>
       </c>
       <c r="AA5">
@@ -1865,7 +1865,7 @@
       <c r="AD5">
         <v>39</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="2">
         <v>17</v>
       </c>
       <c r="AF5">
@@ -1954,7 +1954,7 @@
       <c r="H6">
         <v>26</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>20</v>
       </c>
       <c r="J6">
@@ -1969,7 +1969,7 @@
       <c r="M6">
         <v>31</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>19</v>
       </c>
       <c r="O6">
@@ -1981,16 +1981,16 @@
       <c r="Q6">
         <v>22</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="2">
         <v>20</v>
       </c>
       <c r="S6">
         <v>22</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="2">
         <v>21</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="2">
         <v>20</v>
       </c>
       <c r="V6">
@@ -2005,10 +2005,10 @@
       <c r="Y6">
         <v>22</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="2">
         <v>19</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="2">
         <v>19</v>
       </c>
       <c r="AB6">
@@ -2020,7 +2020,7 @@
       <c r="AD6">
         <v>28</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="2">
         <v>20</v>
       </c>
       <c r="AF6">
@@ -2088,19 +2088,19 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>18</v>
       </c>
       <c r="C7">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>17</v>
       </c>
       <c r="E7">
         <v>24</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>15</v>
       </c>
       <c r="G7">
@@ -2127,7 +2127,7 @@
       <c r="N7">
         <v>33</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>15</v>
       </c>
       <c r="P7">
@@ -2136,7 +2136,7 @@
       <c r="Q7" s="2">
         <v>10</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <v>18</v>
       </c>
       <c r="S7">
@@ -2154,7 +2154,7 @@
       <c r="W7">
         <v>34</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="2">
         <v>16</v>
       </c>
       <c r="Y7">
@@ -2234,22 +2234,22 @@
       <c r="J8">
         <v>57</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>18</v>
       </c>
       <c r="L8">
         <v>40</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>15</v>
       </c>
       <c r="N8">
         <v>25</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>20</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <v>20</v>
       </c>
       <c r="Q8">
@@ -2323,7 +2323,7 @@
       <c r="C9">
         <v>23</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>18</v>
       </c>
       <c r="E9">
@@ -2382,7 +2382,7 @@
       <c r="C10">
         <v>36</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>21</v>
       </c>
       <c r="E10">
@@ -2391,10 +2391,10 @@
       <c r="F10" s="2">
         <v>12</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>21</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>17</v>
       </c>
       <c r="I10">
@@ -2406,7 +2406,7 @@
       <c r="K10">
         <v>27</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>15</v>
       </c>
       <c r="M10">
@@ -2436,7 +2436,7 @@
       <c r="U10">
         <v>42</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="2">
         <v>16</v>
       </c>
       <c r="W10">
@@ -2537,13 +2537,13 @@
       <c r="H11">
         <v>29</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>18</v>
       </c>
       <c r="J11" s="2">
         <v>13</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>19</v>
       </c>
       <c r="L11">
@@ -2644,7 +2644,7 @@
       <c r="D12">
         <v>28</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>20</v>
       </c>
       <c r="F12">
@@ -2689,7 +2689,7 @@
       <c r="S12">
         <v>46</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="2">
         <v>21</v>
       </c>
       <c r="U12">
@@ -2748,7 +2748,7 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>18</v>
       </c>
       <c r="C13">
@@ -2766,7 +2766,7 @@
       <c r="G13">
         <v>33</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>20</v>
       </c>
       <c r="I13">
@@ -2778,7 +2778,7 @@
       <c r="K13">
         <v>36</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>20</v>
       </c>
       <c r="M13">
@@ -2793,7 +2793,7 @@
       <c r="P13">
         <v>38</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="2">
         <v>20</v>
       </c>
       <c r="R13">
@@ -2805,19 +2805,19 @@
       <c r="T13">
         <v>37</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="2">
         <v>21</v>
       </c>
       <c r="V13">
         <v>26</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="2">
         <v>20</v>
       </c>
       <c r="X13">
         <v>37</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="2">
         <v>20</v>
       </c>
       <c r="Z13">
@@ -2909,7 +2909,7 @@
       <c r="N14" s="2">
         <v>14</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>17</v>
       </c>
       <c r="P14">
@@ -2921,10 +2921,10 @@
       <c r="R14">
         <v>27</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="2">
         <v>17</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="2">
         <v>19</v>
       </c>
       <c r="U14">
@@ -2933,7 +2933,7 @@
       <c r="V14">
         <v>30</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="2">
         <v>19</v>
       </c>
       <c r="X14">
@@ -2951,7 +2951,7 @@
       <c r="AB14">
         <v>34</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="2">
         <v>21</v>
       </c>
       <c r="AD14">
@@ -3004,13 +3004,13 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>18</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>17</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>17</v>
       </c>
       <c r="E15">
@@ -3025,19 +3025,19 @@
       <c r="H15">
         <v>22</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>18</v>
       </c>
       <c r="J15">
         <v>31</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <v>19</v>
       </c>
       <c r="L15">
         <v>23</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <v>16</v>
       </c>
       <c r="N15">
@@ -3046,13 +3046,13 @@
       <c r="O15" s="2">
         <v>14</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <v>19</v>
       </c>
       <c r="Q15" s="2">
         <v>14</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <v>19</v>
       </c>
       <c r="S15">
@@ -3064,13 +3064,13 @@
       <c r="U15">
         <v>37</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="2">
         <v>20</v>
       </c>
       <c r="W15" s="2">
         <v>12</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="2">
         <v>21</v>
       </c>
       <c r="Y15">
@@ -3094,7 +3094,7 @@
       <c r="AE15">
         <v>27</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="2">
         <v>21</v>
       </c>
       <c r="AG15">
@@ -3171,7 +3171,7 @@
       <c r="E16">
         <v>24</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>17</v>
       </c>
       <c r="G16">
@@ -3183,7 +3183,7 @@
       <c r="I16">
         <v>36</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>15</v>
       </c>
       <c r="K16">
@@ -3239,25 +3239,25 @@
       <c r="B17" s="5">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>20</v>
       </c>
       <c r="D17">
         <v>38</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>17</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>19</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>19</v>
       </c>
       <c r="H17">
         <v>72</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>18</v>
       </c>
       <c r="J17">
@@ -3328,10 +3328,10 @@
       <c r="C18">
         <v>23</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>15</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>17</v>
       </c>
       <c r="F18" s="2">
@@ -3343,7 +3343,7 @@
       <c r="H18" s="2">
         <v>10</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>17</v>
       </c>
       <c r="J18">
@@ -3352,7 +3352,7 @@
       <c r="K18">
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <v>17</v>
       </c>
       <c r="M18">
@@ -3361,7 +3361,7 @@
       <c r="N18">
         <v>30</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="2">
         <v>16</v>
       </c>
       <c r="P18">
@@ -3426,7 +3426,7 @@
       <c r="D19">
         <v>26</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>21</v>
       </c>
       <c r="F19">
@@ -3435,7 +3435,7 @@
       <c r="G19">
         <v>30</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>21</v>
       </c>
       <c r="I19">
@@ -3447,7 +3447,7 @@
       <c r="K19">
         <v>22</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <v>20</v>
       </c>
       <c r="M19">
@@ -3465,10 +3465,10 @@
       <c r="Q19">
         <v>22</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="2">
         <v>16</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="2">
         <v>21</v>
       </c>
       <c r="T19">
@@ -3483,7 +3483,7 @@
       <c r="W19">
         <v>30</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="2">
         <v>17</v>
       </c>
       <c r="Y19">
@@ -3495,7 +3495,7 @@
       <c r="AA19" s="2">
         <v>14</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="2">
         <v>21</v>
       </c>
       <c r="AC19">
@@ -3519,7 +3519,7 @@
       <c r="AI19">
         <v>37</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" s="2">
         <v>16</v>
       </c>
       <c r="AK19">
@@ -3540,7 +3540,7 @@
       <c r="AP19">
         <v>26</v>
       </c>
-      <c r="AQ19">
+      <c r="AQ19" s="2">
         <v>17</v>
       </c>
     </row>
@@ -3566,16 +3566,16 @@
       <c r="G20" s="2">
         <v>11</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>18</v>
       </c>
       <c r="I20" s="2">
         <v>10</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>21</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <v>18</v>
       </c>
       <c r="L20">
@@ -3596,13 +3596,13 @@
       <c r="Q20" s="2">
         <v>11</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="2">
         <v>15</v>
       </c>
       <c r="S20">
         <v>51</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="2">
         <v>15</v>
       </c>
       <c r="U20" s="4">
@@ -3665,7 +3665,7 @@
       <c r="AN20" s="2">
         <v>14</v>
       </c>
-      <c r="AO20">
+      <c r="AO20" s="2">
         <v>18</v>
       </c>
       <c r="AP20" s="2">
@@ -3680,7 +3680,7 @@
       <c r="AS20">
         <v>27</v>
       </c>
-      <c r="AT20">
+      <c r="AT20" s="2">
         <v>18</v>
       </c>
       <c r="AU20" s="2">
@@ -3689,10 +3689,10 @@
       <c r="AV20" s="2">
         <v>10</v>
       </c>
-      <c r="AW20">
+      <c r="AW20" s="2">
         <v>15</v>
       </c>
-      <c r="AX20">
+      <c r="AX20" s="2">
         <v>21</v>
       </c>
       <c r="AY20">
@@ -3703,7 +3703,7 @@
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>21</v>
       </c>
       <c r="C21" s="2">
@@ -3727,7 +3727,7 @@
       <c r="I21" s="2">
         <v>12</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>18</v>
       </c>
       <c r="K21" s="2">
@@ -3748,7 +3748,7 @@
       <c r="P21" s="2">
         <v>14</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="2">
         <v>20</v>
       </c>
       <c r="R21">
@@ -3766,7 +3766,7 @@
       <c r="V21">
         <v>24</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="2">
         <v>20</v>
       </c>
       <c r="X21">
@@ -3781,7 +3781,7 @@
       <c r="AA21" s="2">
         <v>13</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="2">
         <v>21</v>
       </c>
       <c r="AC21">
@@ -3790,16 +3790,16 @@
       <c r="AD21" s="2">
         <v>13</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="2">
         <v>20</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="2">
         <v>17</v>
       </c>
       <c r="AG21">
         <v>8</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="2">
         <v>19</v>
       </c>
       <c r="AI21" s="2">
@@ -3808,25 +3808,25 @@
       <c r="AJ21" s="2">
         <v>14</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" s="2">
         <v>17</v>
       </c>
       <c r="AL21">
         <v>7</v>
       </c>
-      <c r="AM21">
+      <c r="AM21" s="2">
         <v>19</v>
       </c>
       <c r="AN21">
         <v>53</v>
       </c>
-      <c r="AO21">
+      <c r="AO21" s="2">
         <v>17</v>
       </c>
-      <c r="AP21">
+      <c r="AP21" s="2">
         <v>16</v>
       </c>
-      <c r="AQ21">
+      <c r="AQ21" s="2">
         <v>16</v>
       </c>
       <c r="AR21">
@@ -3900,10 +3900,10 @@
       <c r="O22">
         <v>8</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="2">
         <v>18</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="2">
         <v>19</v>
       </c>
       <c r="R22">
@@ -3951,7 +3951,7 @@
       <c r="AF22">
         <v>3</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="2">
         <v>18</v>
       </c>
       <c r="AH22">
@@ -3960,7 +3960,7 @@
       <c r="AI22">
         <v>3</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" s="2">
         <v>21</v>
       </c>
       <c r="AK22">
@@ -3987,16 +3987,16 @@
       <c r="AR22" s="2">
         <v>12</v>
       </c>
-      <c r="AS22">
+      <c r="AS22" s="2">
         <v>15</v>
       </c>
-      <c r="AT22">
+      <c r="AT22" s="2">
         <v>21</v>
       </c>
       <c r="AU22" s="2">
         <v>10</v>
       </c>
-      <c r="AV22">
+      <c r="AV22" s="2">
         <v>20</v>
       </c>
       <c r="AW22" s="2">
@@ -4037,7 +4037,7 @@
       <c r="I23">
         <v>36</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <v>18</v>
       </c>
       <c r="K23">
@@ -4111,7 +4111,7 @@
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>18</v>
       </c>
       <c r="C24">
@@ -4120,10 +4120,10 @@
       <c r="D24">
         <v>22</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>17</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>19</v>
       </c>
       <c r="G24" s="2">
@@ -4132,13 +4132,13 @@
       <c r="H24">
         <v>29</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>17</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <v>18</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <v>20</v>
       </c>
       <c r="L24" s="2">
@@ -4152,19 +4152,19 @@
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>17</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>17</v>
       </c>
       <c r="D25" s="2">
         <v>11</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>16</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>16</v>
       </c>
       <c r="G25" s="2">
@@ -4205,13 +4205,13 @@
       <c r="I26">
         <v>23</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <v>20</v>
       </c>
       <c r="K26">
         <v>34</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="2">
         <v>16</v>
       </c>
       <c r="M26">
@@ -4241,13 +4241,13 @@
       <c r="U26">
         <v>6</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="2">
         <v>17</v>
       </c>
       <c r="W26">
         <v>25</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="2">
         <v>18</v>
       </c>
       <c r="Y26">
@@ -4256,7 +4256,7 @@
       <c r="Z26" s="2">
         <v>12</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="2">
         <v>21</v>
       </c>
       <c r="AB26" s="2">
@@ -4274,13 +4274,13 @@
       <c r="AF26" s="2">
         <v>9</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="2">
         <v>20</v>
       </c>
       <c r="AH26">
         <v>24</v>
       </c>
-      <c r="AI26">
+      <c r="AI26" s="2">
         <v>17</v>
       </c>
       <c r="AJ26" s="2">
@@ -4319,7 +4319,7 @@
       <c r="AU26" s="2">
         <v>13</v>
       </c>
-      <c r="AV26">
+      <c r="AV26" s="2">
         <v>15</v>
       </c>
       <c r="AW26">
@@ -4334,13 +4334,13 @@
       <c r="AZ26">
         <v>23</v>
       </c>
-      <c r="BA26">
+      <c r="BA26" s="2">
         <v>15</v>
       </c>
       <c r="BB26" s="2">
         <v>12</v>
       </c>
-      <c r="BC26">
+      <c r="BC26" s="2">
         <v>17</v>
       </c>
       <c r="BD26" s="2">
@@ -4349,13 +4349,13 @@
       <c r="BE26" s="2">
         <v>12</v>
       </c>
-      <c r="BF26">
+      <c r="BF26" s="2">
         <v>21</v>
       </c>
       <c r="BG26" s="2">
         <v>14</v>
       </c>
-      <c r="BH26">
+      <c r="BH26" s="2">
         <v>21</v>
       </c>
       <c r="BI26">
@@ -4367,7 +4367,7 @@
       <c r="BK26" s="2">
         <v>12</v>
       </c>
-      <c r="BL26">
+      <c r="BL26" s="2">
         <v>19</v>
       </c>
       <c r="BM26" s="2">
@@ -4384,7 +4384,7 @@
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>19</v>
       </c>
       <c r="C27">
@@ -4417,7 +4417,7 @@
       <c r="L27">
         <v>23</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="2">
         <v>17</v>
       </c>
       <c r="N27">
@@ -4426,10 +4426,10 @@
       <c r="O27">
         <v>22</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="2">
         <v>21</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="2">
         <v>21</v>
       </c>
       <c r="R27">
@@ -4438,10 +4438,10 @@
       <c r="S27">
         <v>23</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="2">
         <v>15</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="2">
         <v>18</v>
       </c>
       <c r="V27" s="2">
@@ -4465,7 +4465,7 @@
       <c r="AB27">
         <v>22</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="2">
         <v>17</v>
       </c>
       <c r="AD27">
@@ -4486,25 +4486,25 @@
       <c r="AI27">
         <v>22</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ27" s="2">
         <v>19</v>
       </c>
       <c r="AK27">
         <v>32</v>
       </c>
-      <c r="AL27">
+      <c r="AL27" s="2">
         <v>21</v>
       </c>
       <c r="AM27">
         <v>28</v>
       </c>
-      <c r="AN27">
+      <c r="AN27" s="2">
         <v>18</v>
       </c>
-      <c r="AO27">
+      <c r="AO27" s="2">
         <v>16</v>
       </c>
-      <c r="AP27">
+      <c r="AP27" s="2">
         <v>18</v>
       </c>
       <c r="AQ27">
@@ -4574,10 +4574,10 @@
       <c r="D29">
         <v>27</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>17</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>17</v>
       </c>
       <c r="G29" s="2">
@@ -4586,7 +4586,7 @@
       <c r="H29">
         <v>27</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>18</v>
       </c>
       <c r="J29" s="2">
@@ -4637,10 +4637,10 @@
       <c r="Y29">
         <v>27</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="2">
         <v>17</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="2">
         <v>21</v>
       </c>
       <c r="AB29">
@@ -4649,13 +4649,13 @@
       <c r="AC29">
         <v>26</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" s="2">
         <v>21</v>
       </c>
       <c r="AE29">
         <v>26</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="2">
         <v>18</v>
       </c>
       <c r="AG29">
@@ -4667,7 +4667,7 @@
       <c r="AI29">
         <v>31</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ29" s="2">
         <v>15</v>
       </c>
       <c r="AK29">
@@ -4688,7 +4688,7 @@
       <c r="AP29">
         <v>26</v>
       </c>
-      <c r="AQ29">
+      <c r="AQ29" s="2">
         <v>20</v>
       </c>
       <c r="AR29">
@@ -4714,7 +4714,7 @@
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>21</v>
       </c>
       <c r="C30">
@@ -4741,7 +4741,7 @@
       <c r="J30">
         <v>27</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="2">
         <v>21</v>
       </c>
       <c r="L30">
@@ -4770,34 +4770,34 @@
       <c r="D31">
         <v>5</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>19</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>15</v>
       </c>
       <c r="G31" s="2">
         <v>11</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>16</v>
       </c>
       <c r="I31" s="2">
         <v>14</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <v>17</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="2">
         <v>15</v>
       </c>
       <c r="L31" s="2">
         <v>11</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="2">
         <v>15</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="2">
         <v>15</v>
       </c>
       <c r="O31" s="2">
@@ -4808,7 +4808,7 @@
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>20</v>
       </c>
       <c r="C32">
@@ -4817,7 +4817,7 @@
       <c r="D32">
         <v>5</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>21</v>
       </c>
     </row>
@@ -4825,13 +4825,13 @@
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>15</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>16</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>15</v>
       </c>
       <c r="E33" s="2">
@@ -4843,13 +4843,13 @@
       <c r="G33" s="2">
         <v>14</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <v>17</v>
       </c>
       <c r="I33" s="2">
         <v>14</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <v>15</v>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>21</v>
       </c>
     </row>
@@ -4865,7 +4865,7 @@
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>16</v>
       </c>
       <c r="C35" s="2">
@@ -4882,7 +4882,7 @@
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>16</v>
       </c>
       <c r="C36" s="2">
@@ -4897,10 +4897,10 @@
       <c r="F36" s="2">
         <v>14</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>16</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>20</v>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
       <c r="C37" s="2">
         <v>14</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>19</v>
       </c>
     </row>
@@ -4922,13 +4922,13 @@
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>17</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>20</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>19</v>
       </c>
     </row>
@@ -4936,13 +4936,13 @@
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>18</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>15</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>20</v>
       </c>
     </row>
@@ -4950,7 +4950,7 @@
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>15</v>
       </c>
       <c r="C40">
@@ -4961,10 +4961,10 @@
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>17</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>17</v>
       </c>
       <c r="D41" s="2">
@@ -4976,7 +4976,7 @@
       <c r="F41" s="2">
         <v>11</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>15</v>
       </c>
       <c r="H41" s="2">
@@ -4985,13 +4985,13 @@
       <c r="I41">
         <v>23</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <v>17</v>
       </c>
       <c r="K41" s="2">
         <v>12</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="2">
         <v>17</v>
       </c>
       <c r="M41" s="2">
@@ -5000,7 +5000,7 @@
       <c r="N41" s="2">
         <v>9</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="2">
         <v>21</v>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
       <c r="B42" s="2">
         <v>14</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>17</v>
       </c>
       <c r="D42">
@@ -5028,7 +5028,7 @@
       <c r="C43">
         <v>23</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>17</v>
       </c>
       <c r="E43">
@@ -5103,7 +5103,7 @@
       <c r="AB43">
         <v>66</v>
       </c>
-      <c r="AC43">
+      <c r="AC43" s="2">
         <v>20</v>
       </c>
     </row>
@@ -5156,7 +5156,7 @@
       <c r="P44">
         <v>47</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="2">
         <v>20</v>
       </c>
     </row>
@@ -5324,7 +5324,7 @@
       <c r="F47">
         <v>42</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>15</v>
       </c>
       <c r="H47">
@@ -5410,7 +5410,7 @@
       <c r="E48">
         <v>25</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <v>21</v>
       </c>
       <c r="G48">
@@ -5425,13 +5425,13 @@
       <c r="J48">
         <v>33</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="2">
         <v>21</v>
       </c>
       <c r="L48">
         <v>36</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="2">
         <v>21</v>
       </c>
       <c r="N48" s="2">
@@ -5449,24 +5449,24 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B49">
         <v>31</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>16</v>
       </c>
       <c r="D49">
         <v>23</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>21</v>
       </c>
       <c r="F49" s="2">
         <v>13</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>20</v>
       </c>
       <c r="H49">
@@ -5502,42 +5502,42 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B50">
         <v>24</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>17</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>18</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>18</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>21</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>18</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>16</v>
       </c>
       <c r="I50">
         <v>24</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>15</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="2">
         <v>18</v>
       </c>
       <c r="L50">
         <v>33</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="2">
         <v>21</v>
       </c>
       <c r="N50" s="2">
@@ -5546,12 +5546,12 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B51">
         <v>24</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>21</v>
       </c>
       <c r="D51">
@@ -5563,13 +5563,13 @@
       <c r="F51">
         <v>26</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>23</v>
@@ -5577,7 +5577,7 @@
       <c r="C52">
         <v>22</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>21</v>
       </c>
       <c r="E52">
@@ -5592,7 +5592,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>30</v>
@@ -5600,7 +5600,7 @@
       <c r="C53">
         <v>30</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>21</v>
       </c>
       <c r="E53">
@@ -5609,7 +5609,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>29</v>
@@ -5620,24 +5620,24 @@
       <c r="D54">
         <v>25</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2">
         <v>10</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>20</v>
       </c>
       <c r="D55" s="2">
         <v>13</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>18</v>
       </c>
       <c r="F55">
@@ -5646,52 +5646,52 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B56" s="2">
         <v>12</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>17</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
+        <v>64</v>
+      </c>
+      <c r="B57" s="2">
         <v>20</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>15</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>16</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>16</v>
       </c>
       <c r="F57">
         <v>25</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
+        <v>65</v>
+      </c>
+      <c r="B58" s="2">
         <v>18</v>
       </c>
       <c r="C58">
         <v>26</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>17</v>
       </c>
       <c r="E58">
@@ -5700,21 +5700,21 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
+        <v>49</v>
+      </c>
+      <c r="B59" s="2">
         <v>16</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>15</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>25</v>
@@ -5722,24 +5722,24 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2">
         <v>14</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>18</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>19</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>16</v>
       </c>
       <c r="F61" s="2">
         <v>14</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>20</v>
       </c>
       <c r="H61">
@@ -5766,7 +5766,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B62">
         <v>27</v>
@@ -5774,10 +5774,10 @@
       <c r="C62">
         <v>26</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>18</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>17</v>
       </c>
       <c r="F62" s="2">
@@ -5786,7 +5786,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B63">
         <v>25</v>
@@ -5797,7 +5797,7 @@
       <c r="D63">
         <v>22</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>19</v>
       </c>
       <c r="F63" s="2">
@@ -5806,22 +5806,22 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
+        <v>52</v>
+      </c>
+      <c r="B64" s="2">
         <v>21</v>
       </c>
       <c r="C64">
         <v>22</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>18</v>
       </c>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B65" s="2">
         <v>10</v>
@@ -5832,7 +5832,7 @@
       <c r="D65">
         <v>24</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>21</v>
       </c>
       <c r="F65" s="2">
@@ -5841,7 +5841,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B66" s="2">
         <v>13</v>
@@ -5850,16 +5850,16 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
+        <v>55</v>
+      </c>
+      <c r="B67" s="2">
         <v>15</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B68">
         <v>25</v>
@@ -5868,9 +5868,9 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
         <v>20</v>
       </c>
       <c r="C69">
@@ -5885,55 +5885,55 @@
       <c r="F69" s="2">
         <v>14</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <v>17</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="2">
         <v>17</v>
       </c>
       <c r="I69" s="2">
         <v>13</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="2">
         <v>21</v>
       </c>
       <c r="K69" s="2">
         <v>11</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="2">
         <v>19</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="2">
         <v>17</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="2">
         <v>18</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="2">
         <v>20</v>
       </c>
       <c r="P69">
         <v>8</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" s="2">
         <v>21</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="2">
         <v>18</v>
       </c>
       <c r="S69">
         <v>24</v>
       </c>
-      <c r="T69">
+      <c r="T69" s="2">
         <v>21</v>
       </c>
-      <c r="U69">
+      <c r="U69" s="2">
         <v>15</v>
       </c>
       <c r="V69">
         <v>27</v>
       </c>
-      <c r="W69">
+      <c r="W69" s="2">
         <v>21</v>
       </c>
     </row>

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{43A11AB3-F650-4E44-8A25-4A32D79062DE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B7007E08-60FE-498A-B3CC-6B24EC9D7E43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1093,7 +1093,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT22" sqref="AT22"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1173,7 @@
       <c r="V1" s="3">
         <v>21</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="3">
         <v>22</v>
       </c>
       <c r="X1" s="1">
@@ -1328,13 +1328,13 @@
       <c r="F2">
         <v>32</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>22</v>
       </c>
       <c r="H2">
         <v>24</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>22</v>
       </c>
       <c r="J2">
@@ -1394,7 +1394,7 @@
       <c r="AB2">
         <v>46</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="2">
         <v>22</v>
       </c>
       <c r="AD2">
@@ -1454,7 +1454,7 @@
       <c r="AV2">
         <v>31</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="2">
         <v>22</v>
       </c>
       <c r="AX2">
@@ -1468,13 +1468,13 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>22</v>
       </c>
       <c r="C3">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>22</v>
       </c>
       <c r="E3">
@@ -1504,7 +1504,7 @@
       <c r="M3">
         <v>51</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>22</v>
       </c>
       <c r="O3">
@@ -1832,7 +1832,7 @@
       <c r="S5">
         <v>32</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="2">
         <v>22</v>
       </c>
       <c r="U5">
@@ -1960,7 +1960,7 @@
       <c r="J6">
         <v>29</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>22</v>
       </c>
       <c r="L6">
@@ -1978,13 +1978,13 @@
       <c r="P6">
         <v>23</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>22</v>
       </c>
       <c r="R6" s="2">
         <v>20</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="2">
         <v>22</v>
       </c>
       <c r="T6" s="2">
@@ -2002,7 +2002,7 @@
       <c r="X6">
         <v>26</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="2">
         <v>22</v>
       </c>
       <c r="Z6" s="2">
@@ -2317,7 +2317,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>22</v>
       </c>
       <c r="C9">
@@ -2326,7 +2326,7 @@
       <c r="D9" s="2">
         <v>18</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>22</v>
       </c>
       <c r="AL9" t="s">
@@ -2385,7 +2385,7 @@
       <c r="D10" s="2">
         <v>21</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>22</v>
       </c>
       <c r="F10" s="2">
@@ -2397,7 +2397,7 @@
       <c r="H10" s="2">
         <v>17</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>22</v>
       </c>
       <c r="J10">
@@ -2576,7 +2576,7 @@
       <c r="U11">
         <v>26</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="2">
         <v>22</v>
       </c>
       <c r="W11">
@@ -2781,7 +2781,7 @@
       <c r="L13" s="2">
         <v>20</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>22</v>
       </c>
       <c r="N13">
@@ -3013,7 +3013,7 @@
       <c r="D15" s="2">
         <v>17</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>22</v>
       </c>
       <c r="F15" s="2">
@@ -3022,7 +3022,7 @@
       <c r="G15">
         <v>42</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>22</v>
       </c>
       <c r="I15" s="2">
@@ -3174,7 +3174,7 @@
       <c r="F16" s="2">
         <v>17</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>22</v>
       </c>
       <c r="H16">
@@ -3322,7 +3322,7 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>22</v>
       </c>
       <c r="C18">
@@ -3417,7 +3417,7 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>22</v>
       </c>
       <c r="C19" s="2">
@@ -3438,13 +3438,13 @@
       <c r="H19" s="2">
         <v>21</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>22</v>
       </c>
       <c r="J19">
         <v>35</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <v>22</v>
       </c>
       <c r="L19" s="2">
@@ -3456,13 +3456,13 @@
       <c r="N19">
         <v>28</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="2">
         <v>22</v>
       </c>
       <c r="P19">
         <v>35</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="2">
         <v>22</v>
       </c>
       <c r="R19" s="2">
@@ -3510,7 +3510,7 @@
       <c r="AF19">
         <v>40</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="2">
         <v>22</v>
       </c>
       <c r="AH19">
@@ -3620,7 +3620,7 @@
       <c r="Y20" s="2">
         <v>10</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="2">
         <v>22</v>
       </c>
       <c r="AA20" s="2">
@@ -3644,7 +3644,7 @@
       <c r="AG20" s="2">
         <v>11</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="2">
         <v>22</v>
       </c>
       <c r="AI20">
@@ -3864,7 +3864,7 @@
       <c r="C22">
         <v>29</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>22</v>
       </c>
       <c r="E22">
@@ -4016,7 +4016,7 @@
       <c r="B23">
         <v>33</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>22</v>
       </c>
       <c r="D23">
@@ -4117,7 +4117,7 @@
       <c r="C24">
         <v>26</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>22</v>
       </c>
       <c r="E24" s="2">
@@ -4184,7 +4184,7 @@
       <c r="B26">
         <v>31</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>22</v>
       </c>
       <c r="D26">
@@ -4217,7 +4217,7 @@
       <c r="M26">
         <v>6</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="2">
         <v>22</v>
       </c>
       <c r="O26">
@@ -4286,13 +4286,13 @@
       <c r="AJ26" s="2">
         <v>10</v>
       </c>
-      <c r="AK26">
+      <c r="AK26" s="2">
         <v>22</v>
       </c>
       <c r="AL26">
         <v>38</v>
       </c>
-      <c r="AM26">
+      <c r="AM26" s="2">
         <v>22</v>
       </c>
       <c r="AN26">
@@ -4322,7 +4322,7 @@
       <c r="AV26" s="2">
         <v>15</v>
       </c>
-      <c r="AW26">
+      <c r="AW26" s="2">
         <v>22</v>
       </c>
       <c r="AX26">
@@ -4358,7 +4358,7 @@
       <c r="BH26" s="2">
         <v>21</v>
       </c>
-      <c r="BI26">
+      <c r="BI26" s="2">
         <v>22</v>
       </c>
       <c r="BJ26" s="2">
@@ -4423,7 +4423,7 @@
       <c r="N27">
         <v>27</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="2">
         <v>22</v>
       </c>
       <c r="P27" s="2">
@@ -4462,7 +4462,7 @@
       <c r="AA27">
         <v>24</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="2">
         <v>22</v>
       </c>
       <c r="AC27" s="2">
@@ -4483,7 +4483,7 @@
       <c r="AH27">
         <v>26</v>
       </c>
-      <c r="AI27">
+      <c r="AI27" s="2">
         <v>22</v>
       </c>
       <c r="AJ27" s="2">
@@ -4507,7 +4507,7 @@
       <c r="AP27" s="2">
         <v>18</v>
       </c>
-      <c r="AQ27">
+      <c r="AQ27" s="2">
         <v>22</v>
       </c>
       <c r="AR27" s="2">
@@ -4545,19 +4545,19 @@
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>22</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>22</v>
       </c>
       <c r="D28">
         <v>66</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>22</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>22</v>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       <c r="J29" s="2">
         <v>11</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="2">
         <v>22</v>
       </c>
       <c r="L29">
@@ -5574,7 +5574,7 @@
       <c r="B52">
         <v>23</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>22</v>
       </c>
       <c r="D52" s="2">
@@ -5694,7 +5694,7 @@
       <c r="D58" s="2">
         <v>17</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>22</v>
       </c>
     </row>
@@ -5794,7 +5794,7 @@
       <c r="C63">
         <v>25</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>22</v>
       </c>
       <c r="E63" s="2">
@@ -5811,7 +5811,7 @@
       <c r="B64" s="2">
         <v>21</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>22</v>
       </c>
       <c r="D64" s="2">
@@ -5876,7 +5876,7 @@
       <c r="C69">
         <v>29</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>22</v>
       </c>
       <c r="E69" s="2">

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B7007E08-60FE-498A-B3CC-6B24EC9D7E43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D649112-65AB-4799-AF81-9579064ECCD7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>Acts</t>
   </si>
   <si>
-    <t>Rom</t>
-  </si>
-  <si>
     <t>Titus</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>Galatians</t>
+  </si>
+  <si>
+    <t>Romans</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1093,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="AS21" sqref="AS21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1176,7 @@
       <c r="W1" s="3">
         <v>22</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="3">
         <v>23</v>
       </c>
       <c r="Y1" s="1">
@@ -1427,10 +1427,10 @@
       <c r="AM2">
         <v>30</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="2">
         <v>23</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="2">
         <v>23</v>
       </c>
       <c r="AP2">
@@ -1480,7 +1480,7 @@
       <c r="E3">
         <v>31</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>23</v>
       </c>
       <c r="G3">
@@ -1564,7 +1564,7 @@
       <c r="AG3">
         <v>35</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="2">
         <v>23</v>
       </c>
       <c r="AI3">
@@ -1638,7 +1638,7 @@
       <c r="F4">
         <v>26</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>23</v>
       </c>
       <c r="H4">
@@ -1692,7 +1692,7 @@
       <c r="X4">
         <v>44</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="2">
         <v>23</v>
       </c>
       <c r="Z4">
@@ -1802,7 +1802,7 @@
       <c r="I5">
         <v>26</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>23</v>
       </c>
       <c r="K5">
@@ -1856,7 +1856,7 @@
       <c r="AA5">
         <v>65</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="2">
         <v>23</v>
       </c>
       <c r="AC5">
@@ -1975,7 +1975,7 @@
       <c r="O6">
         <v>29</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <v>23</v>
       </c>
       <c r="Q6" s="2">
@@ -1993,7 +1993,7 @@
       <c r="U6" s="2">
         <v>20</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="2">
         <v>23</v>
       </c>
       <c r="W6">
@@ -2118,7 +2118,7 @@
       <c r="K7">
         <v>43</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>23</v>
       </c>
       <c r="M7">
@@ -2210,7 +2210,7 @@
       <c r="B8">
         <v>36</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>23</v>
       </c>
       <c r="D8">
@@ -2320,7 +2320,7 @@
       <c r="B9" s="2">
         <v>22</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>23</v>
       </c>
       <c r="D9" s="2">
@@ -2412,7 +2412,7 @@
       <c r="M10">
         <v>25</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>23</v>
       </c>
       <c r="O10">
@@ -2421,7 +2421,7 @@
       <c r="P10">
         <v>35</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="2">
         <v>23</v>
       </c>
       <c r="R10">
@@ -2439,13 +2439,13 @@
       <c r="V10" s="2">
         <v>16</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="2">
         <v>23</v>
       </c>
       <c r="X10">
         <v>28</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="2">
         <v>23</v>
       </c>
       <c r="Z10">
@@ -2531,7 +2531,7 @@
       <c r="F11">
         <v>25</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>23</v>
       </c>
       <c r="H11">
@@ -2561,7 +2561,7 @@
       <c r="P11">
         <v>37</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <v>23</v>
       </c>
       <c r="R11">
@@ -3034,13 +3034,13 @@
       <c r="K15" s="2">
         <v>19</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>23</v>
       </c>
       <c r="M15" s="2">
         <v>16</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>23</v>
       </c>
       <c r="O15" s="2">
@@ -3079,7 +3079,7 @@
       <c r="Z15">
         <v>28</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="2">
         <v>23</v>
       </c>
       <c r="AB15" s="2">
@@ -3109,7 +3109,7 @@
       <c r="AJ15">
         <v>26</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" s="2">
         <v>23</v>
       </c>
       <c r="AL15" t="s">
@@ -3325,7 +3325,7 @@
       <c r="B18" s="2">
         <v>22</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>23</v>
       </c>
       <c r="D18" s="2">
@@ -3647,7 +3647,7 @@
       <c r="AH20" s="2">
         <v>22</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="2">
         <v>23</v>
       </c>
       <c r="AJ20">
@@ -3659,7 +3659,7 @@
       <c r="AL20">
         <v>40</v>
       </c>
-      <c r="AM20">
+      <c r="AM20" s="2">
         <v>23</v>
       </c>
       <c r="AN20" s="2">
@@ -3695,7 +3695,7 @@
       <c r="AX20" s="2">
         <v>21</v>
       </c>
-      <c r="AY20">
+      <c r="AY20" s="2">
         <v>23</v>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
       <c r="X21">
         <v>28</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="2">
         <v>23</v>
       </c>
       <c r="Z21" s="2">
@@ -3832,7 +3832,7 @@
       <c r="AR21">
         <v>5</v>
       </c>
-      <c r="AS21">
+      <c r="AS21" s="2">
         <v>23</v>
       </c>
       <c r="AT21" s="2">
@@ -4025,7 +4025,7 @@
       <c r="E23">
         <v>27</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>23</v>
       </c>
       <c r="G23">
@@ -4202,7 +4202,7 @@
       <c r="H26">
         <v>25</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>23</v>
       </c>
       <c r="J26" s="2">
@@ -4250,7 +4250,7 @@
       <c r="X26" s="2">
         <v>18</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="2">
         <v>23</v>
       </c>
       <c r="Z26" s="2">
@@ -4331,7 +4331,7 @@
       <c r="AY26" s="2">
         <v>11</v>
       </c>
-      <c r="AZ26">
+      <c r="AZ26" s="2">
         <v>23</v>
       </c>
       <c r="BA26" s="2">
@@ -4405,7 +4405,7 @@
       <c r="H27">
         <v>34</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>23</v>
       </c>
       <c r="J27">
@@ -4414,7 +4414,7 @@
       <c r="K27">
         <v>25</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <v>23</v>
       </c>
       <c r="M27" s="2">
@@ -4435,7 +4435,7 @@
       <c r="R27">
         <v>27</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="2">
         <v>23</v>
       </c>
       <c r="T27" s="2">
@@ -4601,10 +4601,10 @@
       <c r="M29">
         <v>28</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="2">
         <v>23</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="2">
         <v>23</v>
       </c>
       <c r="P29">
@@ -4676,7 +4676,7 @@
       <c r="AL29">
         <v>28</v>
       </c>
-      <c r="AM29">
+      <c r="AM29" s="2">
         <v>23</v>
       </c>
       <c r="AN29">
@@ -4703,7 +4703,7 @@
       <c r="AU29">
         <v>24</v>
       </c>
-      <c r="AV29">
+      <c r="AV29" s="2">
         <v>23</v>
       </c>
       <c r="AW29">
@@ -4953,7 +4953,7 @@
       <c r="B40" s="2">
         <v>15</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>23</v>
       </c>
     </row>
@@ -4982,7 +4982,7 @@
       <c r="H41" s="2">
         <v>14</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <v>23</v>
       </c>
       <c r="J41" s="2">
@@ -5025,7 +5025,7 @@
       <c r="B43">
         <v>25</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>23</v>
       </c>
       <c r="D43" s="2">
@@ -5396,7 +5396,7 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>32</v>
@@ -5413,7 +5413,7 @@
       <c r="F48" s="2">
         <v>21</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>23</v>
       </c>
       <c r="H48">
@@ -5437,7 +5437,7 @@
       <c r="N48" s="2">
         <v>14</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="2">
         <v>23</v>
       </c>
       <c r="P48">
@@ -5449,7 +5449,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>31</v>
@@ -5457,7 +5457,7 @@
       <c r="C49" s="2">
         <v>16</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>23</v>
       </c>
       <c r="E49" s="2">
@@ -5502,7 +5502,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>24</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51">
         <v>24</v>
@@ -5569,9 +5569,9 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
+        <v>56</v>
+      </c>
+      <c r="B52" s="2">
         <v>23</v>
       </c>
       <c r="C52" s="2">
@@ -5592,7 +5592,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>30</v>
@@ -5603,18 +5603,18 @@
       <c r="D53" s="2">
         <v>21</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>29</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>23</v>
       </c>
       <c r="D54">
@@ -5626,7 +5626,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2">
         <v>10</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2">
         <v>12</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="2">
         <v>20</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2">
         <v>18</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="2">
         <v>16</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>25</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2">
         <v>14</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62">
         <v>27</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63">
         <v>25</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" s="2">
         <v>21</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" s="2">
         <v>10</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" s="2">
         <v>13</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B67" s="2">
         <v>15</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B68">
         <v>25</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>20</v>

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4D649112-65AB-4799-AF81-9579064ECCD7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{68AB5393-0FF6-41B8-9B8D-5D6EC9497E61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1093,7 +1093,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS21" sqref="AS21"/>
+      <selection pane="bottomRight" activeCell="AN22" sqref="AN22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,7 @@
       <c r="X1" s="3">
         <v>23</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="3">
         <v>24</v>
       </c>
       <c r="Z1" s="1">
@@ -1319,7 +1319,7 @@
       <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>24</v>
       </c>
       <c r="E2">
@@ -1331,7 +1331,7 @@
       <c r="G2" s="2">
         <v>22</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>24</v>
       </c>
       <c r="I2" s="2">
@@ -1352,7 +1352,7 @@
       <c r="N2" s="2">
         <v>18</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>24</v>
       </c>
       <c r="P2" s="2">
@@ -1376,7 +1376,7 @@
       <c r="V2">
         <v>34</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="2">
         <v>24</v>
       </c>
       <c r="X2" s="2">
@@ -1647,7 +1647,7 @@
       <c r="I4">
         <v>36</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>24</v>
       </c>
       <c r="K4" s="2">
@@ -1683,7 +1683,7 @@
       <c r="U4">
         <v>27</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <v>24</v>
       </c>
       <c r="W4">
@@ -2091,13 +2091,13 @@
       <c r="B7" s="2">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>17</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>24</v>
       </c>
       <c r="F7" s="2">
@@ -2121,7 +2121,7 @@
       <c r="L7" s="2">
         <v>23</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>24</v>
       </c>
       <c r="N7">
@@ -2216,7 +2216,7 @@
       <c r="D8">
         <v>31</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>24</v>
       </c>
       <c r="F8">
@@ -2430,7 +2430,7 @@
       <c r="S10">
         <v>30</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="2">
         <v>24</v>
       </c>
       <c r="U10">
@@ -2683,7 +2683,7 @@
       <c r="Q12">
         <v>34</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="2">
         <v>24</v>
       </c>
       <c r="S12">
@@ -2876,7 +2876,7 @@
       <c r="C14">
         <v>55</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>24</v>
       </c>
       <c r="E14">
@@ -3168,7 +3168,7 @@
       <c r="D16" s="2">
         <v>13</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>24</v>
       </c>
       <c r="F16" s="2">
@@ -3364,7 +3364,7 @@
       <c r="O18" s="2">
         <v>16</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="2">
         <v>24</v>
       </c>
       <c r="Q18" s="2">
@@ -3525,7 +3525,7 @@
       <c r="AK19">
         <v>33</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" s="2">
         <v>24</v>
       </c>
       <c r="AM19">
@@ -3715,7 +3715,7 @@
       <c r="E21" s="2">
         <v>9</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>24</v>
       </c>
       <c r="G21" s="2">
@@ -3763,7 +3763,7 @@
       <c r="U21">
         <v>6</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="2">
         <v>24</v>
       </c>
       <c r="W21" s="2">
@@ -3972,7 +3972,7 @@
       <c r="AM22">
         <v>8</v>
       </c>
-      <c r="AN22">
+      <c r="AN22" s="2">
         <v>24</v>
       </c>
       <c r="AO22" s="2">
@@ -4064,7 +4064,7 @@
       <c r="R23">
         <v>28</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="2">
         <v>24</v>
       </c>
       <c r="T23">
@@ -4265,7 +4265,7 @@
       <c r="AC26">
         <v>29</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="2">
         <v>24</v>
       </c>
       <c r="AE26">
@@ -4277,7 +4277,7 @@
       <c r="AG26" s="2">
         <v>20</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" s="2">
         <v>24</v>
       </c>
       <c r="AI26" s="2">
@@ -4376,7 +4376,7 @@
       <c r="BN26">
         <v>25</v>
       </c>
-      <c r="BO26">
+      <c r="BO26" s="2">
         <v>24</v>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       <c r="Z27">
         <v>38</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="2">
         <v>24</v>
       </c>
       <c r="AB27" s="2">
@@ -4471,7 +4471,7 @@
       <c r="AD27">
         <v>32</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="2">
         <v>24</v>
       </c>
       <c r="AF27">
@@ -4613,7 +4613,7 @@
       <c r="Q29">
         <v>63</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="2">
         <v>24</v>
       </c>
       <c r="S29">
@@ -4700,7 +4700,7 @@
       <c r="AT29">
         <v>25</v>
       </c>
-      <c r="AU29">
+      <c r="AU29" s="2">
         <v>24</v>
       </c>
       <c r="AV29" s="2">
@@ -5014,7 +5014,7 @@
       <c r="C42" s="2">
         <v>17</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>24</v>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       <c r="P49">
         <v>58</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="2">
         <v>24</v>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>24</v>
       </c>
       <c r="C50" s="2">
@@ -5525,7 +5525,7 @@
       <c r="H50" s="2">
         <v>16</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>24</v>
       </c>
       <c r="J50" s="2">
@@ -5548,7 +5548,7 @@
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>24</v>
       </c>
       <c r="C51" s="2">
@@ -5586,7 +5586,7 @@
       <c r="F52">
         <v>33</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>24</v>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       <c r="C65">
         <v>29</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>24</v>
       </c>
       <c r="E65" s="2">
@@ -5921,7 +5921,7 @@
       <c r="R69" s="2">
         <v>18</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="2">
         <v>24</v>
       </c>
       <c r="T69" s="2">

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{68AB5393-0FF6-41B8-9B8D-5D6EC9497E61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53B75650-012A-4CB9-B674-7D8F7A3571D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +558,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -725,12 +719,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1093,4847 +1085,4844 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN22" sqref="AN22"/>
+      <selection pane="bottomRight" activeCell="BN26" sqref="BN26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="67" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="67" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:67" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <v>12</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <v>13</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <v>14</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="2">
         <v>17</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="2">
         <v>18</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="2">
         <v>19</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="2">
         <v>20</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="2">
         <v>21</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="2">
         <v>22</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="2">
         <v>23</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="2">
         <v>24</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="2">
         <v>25</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="2">
         <v>26</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="2">
         <v>27</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="2">
         <v>28</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="2">
         <v>29</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="2">
         <v>30</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="2">
         <v>31</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="2">
         <v>32</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="2">
         <v>33</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="2">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="2">
         <v>35</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="2">
         <v>36</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="2">
         <v>37</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="2">
         <v>38</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="2">
         <v>39</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="2">
         <v>40</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="2">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="2">
         <v>42</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="2">
         <v>43</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="2">
         <v>44</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="2">
         <v>45</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="2">
         <v>46</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="2">
         <v>47</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="2">
         <v>48</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="2">
         <v>49</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="2">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="2">
         <v>51</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" s="2">
         <v>52</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" s="2">
         <v>53</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" s="2">
         <v>54</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="2">
         <v>55</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="2">
         <v>56</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="2">
         <v>57</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="2">
         <v>58</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="2">
         <v>59</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="2">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="2">
         <v>61</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="2">
         <v>62</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="2">
         <v>63</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BM1" s="2">
         <v>64</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BN1" s="2">
         <v>65</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BO1" s="2">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>31</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>25</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>24</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>26</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>32</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>22</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>24</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>22</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>29</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>32</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>32</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>20</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>18</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>24</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>21</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>16</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>27</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>33</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>38</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>18</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <v>34</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>24</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>20</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="1">
         <v>67</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="1">
         <v>34</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="1">
         <v>35</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="1">
         <v>46</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="1">
         <v>22</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="1">
         <v>35</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="1">
         <v>43</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="1">
         <v>54</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="1">
         <v>33</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="1">
         <v>20</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="1">
         <v>31</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="1">
         <v>29</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="1">
         <v>43</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="1">
         <v>36</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="1">
         <v>30</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2" s="1">
         <v>23</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2" s="1">
         <v>23</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="1">
         <v>57</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="1">
         <v>38</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="1">
         <v>34</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="1">
         <v>34</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="1">
         <v>28</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="1">
         <v>34</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="1">
         <v>31</v>
       </c>
-      <c r="AW2" s="2">
+      <c r="AW2" s="1">
         <v>22</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="1">
         <v>33</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>25</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>22</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>31</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>23</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>30</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>29</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>28</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>35</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>29</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>10</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>51</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>22</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>31</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>27</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>36</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>16</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>27</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>25</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>26</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>37</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>30</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>33</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>18</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>40</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>37</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>21</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="1">
         <v>43</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <v>46</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="1">
         <v>38</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="1">
         <v>18</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="1">
         <v>35</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AH3" s="1">
         <v>23</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="1">
         <v>35</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="1">
         <v>35</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="1">
         <v>38</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="1">
         <v>29</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="1">
         <v>31</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="1">
         <v>43</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="1">
         <v>38</v>
       </c>
-      <c r="AP3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY3" t="s">
+      <c r="AP3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>17</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>16</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>17</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>35</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>26</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>23</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>38</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>36</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>24</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>20</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>47</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>8</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>59</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>57</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>33</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>34</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>16</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>30</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>37</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>27</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>24</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>33</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>44</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>23</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="1">
         <v>55</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="1">
         <v>46</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="1">
         <v>34</v>
       </c>
-      <c r="AC4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY4" t="s">
+      <c r="AC4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>54</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>34</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>51</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>49</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>31</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>27</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>89</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>26</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>23</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>36</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>35</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>16</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>33</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>45</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>41</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>35</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>28</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>32</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>22</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>29</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>35</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>41</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="1">
         <v>30</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <v>25</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>19</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="1">
         <v>65</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>23</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="1">
         <v>31</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="1">
         <v>39</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="1">
         <v>17</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="1">
         <v>54</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="1">
         <v>42</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="1">
         <v>56</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="1">
         <v>29</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="1">
         <v>34</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AK5" s="1">
         <v>13</v>
       </c>
-      <c r="AL5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY5" t="s">
+      <c r="AL5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>46</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>37</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>29</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>49</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>33</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>25</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>26</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>20</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>29</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>22</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>32</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>31</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>19</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>29</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>23</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>22</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>20</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>22</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>21</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="1">
         <v>20</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="1">
         <v>23</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="1">
         <v>29</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="1">
         <v>26</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="1">
         <v>22</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="1">
         <v>19</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6" s="1">
         <v>19</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="1">
         <v>26</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="1">
         <v>69</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="1">
         <v>28</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="1">
         <v>20</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="1">
         <v>30</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="1">
         <v>52</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="1">
         <v>29</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AI6" s="1">
         <v>12</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY6" t="s">
+      <c r="AJ6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>24</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>17</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>24</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>27</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>26</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>35</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>27</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>43</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>23</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>24</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>33</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>15</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>63</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>10</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>18</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>28</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>51</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>9</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="1">
         <v>45</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>34</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>16</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="1">
         <v>33</v>
       </c>
-      <c r="AL7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY7" t="s">
+      <c r="AL7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>36</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>23</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>31</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>24</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>31</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>40</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>25</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>35</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>57</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>18</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>40</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>15</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>25</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>20</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>20</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>31</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>13</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>31</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="1">
         <v>30</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="1">
         <v>48</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="1">
         <v>25</v>
       </c>
-      <c r="AL8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY8" t="s">
+      <c r="AL8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>22</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>23</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>18</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>22</v>
       </c>
-      <c r="AL9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY9" t="s">
+      <c r="AL9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>28</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>36</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>21</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>22</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>12</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>21</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>17</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>22</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>27</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>27</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>15</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>25</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>23</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>52</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>35</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <v>23</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>58</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <v>30</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="1">
         <v>24</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <v>42</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V10" s="1">
         <v>16</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="1">
         <v>23</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="1">
         <v>28</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="1">
         <v>23</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="1">
         <v>43</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="1">
         <v>25</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="1">
         <v>12</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="1">
         <v>25</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="1">
         <v>11</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="1">
         <v>31</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AF10" s="1">
         <v>13</v>
       </c>
-      <c r="AL10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY10" t="s">
+      <c r="AL10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>27</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>32</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>39</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>12</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>25</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>23</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>29</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>18</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>13</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>19</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>27</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>31</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>39</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>33</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>37</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <v>23</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>29</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>32</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="1">
         <v>44</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="1">
         <v>26</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V11" s="1">
         <v>22</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="1">
         <v>51</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="1">
         <v>39</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="1">
         <v>25</v>
       </c>
-      <c r="AL11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY11" t="s">
+      <c r="AL11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>53</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>46</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>28</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>20</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>32</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>38</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>51</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>66</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>28</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>29</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>43</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>33</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>34</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>31</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>34</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="1">
         <v>34</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <v>24</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="1">
         <v>46</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="1">
         <v>21</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>43</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="1">
         <v>29</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="1">
         <v>54</v>
       </c>
-      <c r="AL12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY12" t="s">
+      <c r="AL12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>18</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>25</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>27</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>44</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>27</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>33</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>20</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>29</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>37</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>36</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>20</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>22</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>25</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>29</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>38</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <v>20</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>41</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>37</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="1">
         <v>37</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U13" s="1">
         <v>21</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="1">
         <v>26</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="1">
         <v>20</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="1">
         <v>37</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13" s="1">
         <v>20</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="1">
         <v>30</v>
       </c>
-      <c r="AL13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY13" t="s">
+      <c r="AL13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>54</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>55</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>24</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>43</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>41</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>66</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>40</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>40</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>44</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>14</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>47</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>41</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>14</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <v>17</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="1">
         <v>29</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <v>43</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>27</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <v>17</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="1">
         <v>19</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <v>8</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="1">
         <v>30</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="1">
         <v>19</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="1">
         <v>32</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="1">
         <v>31</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="1">
         <v>31</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="1">
         <v>32</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="1">
         <v>34</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AC14" s="1">
         <v>21</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="1">
         <v>30</v>
       </c>
-      <c r="AL14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY14" t="s">
+      <c r="AL14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>18</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>17</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>17</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>22</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>14</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>42</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>22</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>18</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>31</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>19</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>23</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>16</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>23</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <v>14</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <v>19</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="1">
         <v>14</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <v>19</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="1">
         <v>34</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="1">
         <v>11</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>37</v>
       </c>
-      <c r="V15" s="2">
+      <c r="V15" s="1">
         <v>20</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="1">
         <v>12</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="1">
         <v>21</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="1">
         <v>27</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="1">
         <v>28</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AA15" s="1">
         <v>23</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AB15" s="1">
         <v>9</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="1">
         <v>27</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="1">
         <v>36</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="1">
         <v>27</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AF15" s="1">
         <v>21</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="1">
         <v>33</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="1">
         <v>25</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="1">
         <v>33</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="1">
         <v>26</v>
       </c>
-      <c r="AK15" s="2">
+      <c r="AK15" s="1">
         <v>23</v>
       </c>
-      <c r="AL15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY15" t="s">
+      <c r="AL15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>70</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>13</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>24</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>17</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>22</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>28</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>36</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>15</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>44</v>
       </c>
-      <c r="AL16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY16" t="s">
+      <c r="AL16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>11</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>20</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>38</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>17</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>19</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>19</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>72</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>18</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>37</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>40</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>36</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>47</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>31</v>
       </c>
-      <c r="AL17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY17" t="s">
+      <c r="AL17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>22</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>23</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>15</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>17</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>14</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>14</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>10</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>17</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>32</v>
       </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18" s="2">
+      <c r="K18" s="1">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
         <v>17</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <v>8</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>30</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="1">
         <v>16</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="1">
         <v>24</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="1">
         <v>10</v>
       </c>
-      <c r="AL18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY18" t="s">
+      <c r="AL18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>22</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>26</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>21</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>27</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>30</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>21</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>22</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>35</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>22</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>20</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>25</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>28</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="1">
         <v>22</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <v>35</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="1">
         <v>22</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="1">
         <v>16</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="1">
         <v>21</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="1">
         <v>29</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="1">
         <v>29</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="1">
         <v>34</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="1">
         <v>30</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="1">
         <v>17</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="1">
         <v>25</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="1">
         <v>6</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA19" s="1">
         <v>14</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AB19" s="1">
         <v>21</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="1">
         <v>28</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="1">
         <v>25</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="1">
         <v>31</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="1">
         <v>40</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AG19" s="1">
         <v>22</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="1">
         <v>33</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="1">
         <v>37</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AJ19" s="1">
         <v>16</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" s="1">
         <v>33</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AL19" s="1">
         <v>24</v>
       </c>
-      <c r="AM19">
+      <c r="AM19" s="1">
         <v>41</v>
       </c>
-      <c r="AN19">
+      <c r="AN19" s="1">
         <v>30</v>
       </c>
-      <c r="AO19">
+      <c r="AO19" s="1">
         <v>32</v>
       </c>
-      <c r="AP19">
+      <c r="AP19" s="1">
         <v>26</v>
       </c>
-      <c r="AQ19" s="2">
+      <c r="AQ19" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>6</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>11</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>9</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>9</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>13</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>11</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>18</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>10</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>21</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>18</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>7</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>9</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>6</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <v>7</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>5</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="1">
         <v>11</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="1">
         <v>15</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="1">
         <v>51</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="1">
         <v>15</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="1">
         <v>10</v>
       </c>
-      <c r="V20" s="2">
+      <c r="V20" s="1">
         <v>14</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="1">
         <v>32</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="1">
         <v>6</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20" s="1">
         <v>10</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z20" s="1">
         <v>22</v>
       </c>
-      <c r="AA20" s="2">
+      <c r="AA20" s="1">
         <v>11</v>
       </c>
-      <c r="AB20" s="2">
+      <c r="AB20" s="1">
         <v>14</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AC20" s="1">
         <v>9</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20" s="1">
         <v>11</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AE20" s="1">
         <v>13</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="1">
         <v>25</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AG20" s="1">
         <v>11</v>
       </c>
-      <c r="AH20" s="2">
+      <c r="AH20" s="1">
         <v>22</v>
       </c>
-      <c r="AI20" s="2">
+      <c r="AI20" s="1">
         <v>23</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" s="1">
         <v>28</v>
       </c>
-      <c r="AK20" s="2">
+      <c r="AK20" s="1">
         <v>13</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" s="1">
         <v>40</v>
       </c>
-      <c r="AM20" s="2">
+      <c r="AM20" s="1">
         <v>23</v>
       </c>
-      <c r="AN20" s="2">
+      <c r="AN20" s="1">
         <v>14</v>
       </c>
-      <c r="AO20" s="2">
+      <c r="AO20" s="1">
         <v>18</v>
       </c>
-      <c r="AP20" s="2">
+      <c r="AP20" s="1">
         <v>14</v>
       </c>
-      <c r="AQ20" s="2">
+      <c r="AQ20" s="1">
         <v>12</v>
       </c>
-      <c r="AR20">
+      <c r="AR20" s="1">
         <v>5</v>
       </c>
-      <c r="AS20">
+      <c r="AS20" s="1">
         <v>27</v>
       </c>
-      <c r="AT20" s="2">
+      <c r="AT20" s="1">
         <v>18</v>
       </c>
-      <c r="AU20" s="2">
+      <c r="AU20" s="1">
         <v>12</v>
       </c>
-      <c r="AV20" s="2">
+      <c r="AV20" s="1">
         <v>10</v>
       </c>
-      <c r="AW20" s="2">
+      <c r="AW20" s="1">
         <v>15</v>
       </c>
-      <c r="AX20" s="2">
+      <c r="AX20" s="1">
         <v>21</v>
       </c>
-      <c r="AY20" s="2">
+      <c r="AY20" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>21</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>11</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>7</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>9</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>24</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>14</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>12</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>12</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>18</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>14</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>9</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>13</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>12</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="1">
         <v>11</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="1">
         <v>14</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="1">
         <v>20</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>8</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="1">
         <v>36</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="1">
         <v>37</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="1">
         <v>6</v>
       </c>
-      <c r="V21" s="2">
+      <c r="V21" s="1">
         <v>24</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W21" s="1">
         <v>20</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="1">
         <v>28</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="Y21" s="1">
         <v>23</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="Z21" s="1">
         <v>11</v>
       </c>
-      <c r="AA21" s="2">
+      <c r="AA21" s="1">
         <v>13</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AB21" s="1">
         <v>21</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="1">
         <v>72</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AD21" s="1">
         <v>13</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AE21" s="1">
         <v>20</v>
       </c>
-      <c r="AF21" s="2">
+      <c r="AF21" s="1">
         <v>17</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="1">
         <v>8</v>
       </c>
-      <c r="AH21" s="2">
+      <c r="AH21" s="1">
         <v>19</v>
       </c>
-      <c r="AI21" s="2">
+      <c r="AI21" s="1">
         <v>13</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AJ21" s="1">
         <v>14</v>
       </c>
-      <c r="AK21" s="2">
+      <c r="AK21" s="1">
         <v>17</v>
       </c>
-      <c r="AL21">
+      <c r="AL21" s="1">
         <v>7</v>
       </c>
-      <c r="AM21" s="2">
+      <c r="AM21" s="1">
         <v>19</v>
       </c>
-      <c r="AN21">
+      <c r="AN21" s="1">
         <v>53</v>
       </c>
-      <c r="AO21" s="2">
+      <c r="AO21" s="1">
         <v>17</v>
       </c>
-      <c r="AP21" s="2">
+      <c r="AP21" s="1">
         <v>16</v>
       </c>
-      <c r="AQ21" s="2">
+      <c r="AQ21" s="1">
         <v>16</v>
       </c>
-      <c r="AR21">
+      <c r="AR21" s="1">
         <v>5</v>
       </c>
-      <c r="AS21" s="2">
+      <c r="AS21" s="1">
         <v>23</v>
       </c>
-      <c r="AT21" s="2">
+      <c r="AT21" s="1">
         <v>11</v>
       </c>
-      <c r="AU21" s="2">
+      <c r="AU21" s="1">
         <v>13</v>
       </c>
-      <c r="AV21" s="2">
+      <c r="AV21" s="1">
         <v>12</v>
       </c>
-      <c r="AW21" s="2">
+      <c r="AW21" s="1">
         <v>9</v>
       </c>
-      <c r="AX21" s="2">
+      <c r="AX21" s="1">
         <v>9</v>
       </c>
-      <c r="AY21">
+      <c r="AY21" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>8</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>29</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>22</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>35</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>45</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>48</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>43</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>14</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>31</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>7</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>10</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>10</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>9</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>8</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="1">
         <v>18</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="1">
         <v>19</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>2</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <v>29</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="1">
         <v>176</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="1">
         <v>7</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="1">
         <v>8</v>
       </c>
-      <c r="W22" s="2">
+      <c r="W22" s="1">
         <v>9</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="1">
         <v>4</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="1">
         <v>8</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="1">
         <v>5</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="1">
         <v>6</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="1">
         <v>5</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="1">
         <v>6</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="1">
         <v>8</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="1">
         <v>8</v>
       </c>
-      <c r="AF22">
-        <v>3</v>
-      </c>
-      <c r="AG22" s="2">
+      <c r="AF22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG22" s="1">
         <v>18</v>
       </c>
-      <c r="AH22">
-        <v>3</v>
-      </c>
-      <c r="AI22">
-        <v>3</v>
-      </c>
-      <c r="AJ22" s="2">
+      <c r="AH22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ22" s="1">
         <v>21</v>
       </c>
-      <c r="AK22">
+      <c r="AK22" s="1">
         <v>26</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AL22" s="1">
         <v>9</v>
       </c>
-      <c r="AM22">
+      <c r="AM22" s="1">
         <v>8</v>
       </c>
-      <c r="AN22" s="2">
+      <c r="AN22" s="1">
         <v>24</v>
       </c>
-      <c r="AO22" s="2">
+      <c r="AO22" s="1">
         <v>14</v>
       </c>
-      <c r="AP22" s="2">
+      <c r="AP22" s="1">
         <v>10</v>
       </c>
-      <c r="AQ22">
+      <c r="AQ22" s="1">
         <v>8</v>
       </c>
-      <c r="AR22" s="2">
+      <c r="AR22" s="1">
         <v>12</v>
       </c>
-      <c r="AS22" s="2">
+      <c r="AS22" s="1">
         <v>15</v>
       </c>
-      <c r="AT22" s="2">
+      <c r="AT22" s="1">
         <v>21</v>
       </c>
-      <c r="AU22" s="2">
+      <c r="AU22" s="1">
         <v>10</v>
       </c>
-      <c r="AV22" s="2">
+      <c r="AV22" s="1">
         <v>20</v>
       </c>
-      <c r="AW22" s="2">
+      <c r="AW22" s="1">
         <v>14</v>
       </c>
-      <c r="AX22" s="2">
+      <c r="AX22" s="1">
         <v>9</v>
       </c>
-      <c r="AY22">
+      <c r="AY22" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>33</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>22</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>35</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>27</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>23</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>35</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>27</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>36</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <v>18</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>32</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <v>31</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <v>28</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <v>25</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <v>35</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="1">
         <v>33</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="1">
         <v>33</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="1">
         <v>28</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="1">
         <v>24</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="1">
         <v>29</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="1">
         <v>30</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="1">
         <v>31</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="1">
         <v>29</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="1">
         <v>35</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="1">
         <v>34</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="1">
         <v>28</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="1">
         <v>28</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="1">
         <v>27</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="1">
         <v>28</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="1">
         <v>27</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="1">
         <v>33</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>18</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>26</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>22</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>17</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>19</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>12</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>29</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>17</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>18</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>20</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>10</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>17</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>17</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>11</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>16</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>16</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>12</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>14</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>31</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>22</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>26</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>6</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>30</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>13</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>25</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>23</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="1">
         <v>20</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>34</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>16</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <v>6</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>22</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <v>32</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26" s="1">
         <v>9</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="1">
         <v>14</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="1">
         <v>14</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <v>7</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="1">
         <v>25</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="1">
         <v>6</v>
       </c>
-      <c r="V26" s="2">
+      <c r="V26" s="1">
         <v>17</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="1">
         <v>25</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X26" s="1">
         <v>18</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Y26" s="1">
         <v>23</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="Z26" s="1">
         <v>12</v>
       </c>
-      <c r="AA26" s="2">
+      <c r="AA26" s="1">
         <v>21</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AB26" s="1">
         <v>13</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="1">
         <v>29</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26" s="1">
         <v>24</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="1">
         <v>33</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AF26" s="1">
         <v>9</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AG26" s="1">
         <v>20</v>
       </c>
-      <c r="AH26" s="2">
+      <c r="AH26" s="1">
         <v>24</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AI26" s="1">
         <v>17</v>
       </c>
-      <c r="AJ26" s="2">
+      <c r="AJ26" s="1">
         <v>10</v>
       </c>
-      <c r="AK26" s="2">
+      <c r="AK26" s="1">
         <v>22</v>
       </c>
-      <c r="AL26">
+      <c r="AL26" s="1">
         <v>38</v>
       </c>
-      <c r="AM26" s="2">
+      <c r="AM26" s="1">
         <v>22</v>
       </c>
-      <c r="AN26">
+      <c r="AN26" s="1">
         <v>8</v>
       </c>
-      <c r="AO26">
+      <c r="AO26" s="1">
         <v>31</v>
       </c>
-      <c r="AP26">
+      <c r="AP26" s="1">
         <v>29</v>
       </c>
-      <c r="AQ26">
+      <c r="AQ26" s="1">
         <v>25</v>
       </c>
-      <c r="AR26">
+      <c r="AR26" s="1">
         <v>28</v>
       </c>
-      <c r="AS26">
+      <c r="AS26" s="1">
         <v>28</v>
       </c>
-      <c r="AT26">
+      <c r="AT26" s="1">
         <v>25</v>
       </c>
-      <c r="AU26" s="2">
+      <c r="AU26" s="1">
         <v>13</v>
       </c>
-      <c r="AV26" s="2">
+      <c r="AV26" s="1">
         <v>15</v>
       </c>
-      <c r="AW26" s="2">
+      <c r="AW26" s="1">
         <v>22</v>
       </c>
-      <c r="AX26">
+      <c r="AX26" s="1">
         <v>26</v>
       </c>
-      <c r="AY26" s="2">
+      <c r="AY26" s="1">
         <v>11</v>
       </c>
-      <c r="AZ26" s="2">
+      <c r="AZ26" s="1">
         <v>23</v>
       </c>
-      <c r="BA26" s="2">
+      <c r="BA26" s="1">
         <v>15</v>
       </c>
-      <c r="BB26" s="2">
+      <c r="BB26" s="1">
         <v>12</v>
       </c>
-      <c r="BC26" s="2">
+      <c r="BC26" s="1">
         <v>17</v>
       </c>
-      <c r="BD26" s="2">
+      <c r="BD26" s="1">
         <v>13</v>
       </c>
-      <c r="BE26" s="2">
+      <c r="BE26" s="1">
         <v>12</v>
       </c>
-      <c r="BF26" s="2">
+      <c r="BF26" s="1">
         <v>21</v>
       </c>
-      <c r="BG26" s="2">
+      <c r="BG26" s="1">
         <v>14</v>
       </c>
-      <c r="BH26" s="2">
+      <c r="BH26" s="1">
         <v>21</v>
       </c>
-      <c r="BI26" s="2">
+      <c r="BI26" s="1">
         <v>22</v>
       </c>
-      <c r="BJ26" s="2">
+      <c r="BJ26" s="1">
         <v>11</v>
       </c>
-      <c r="BK26" s="2">
+      <c r="BK26" s="1">
         <v>12</v>
       </c>
-      <c r="BL26" s="2">
+      <c r="BL26" s="1">
         <v>19</v>
       </c>
-      <c r="BM26" s="2">
+      <c r="BM26" s="1">
         <v>11</v>
       </c>
-      <c r="BN26">
+      <c r="BN26" s="1">
         <v>25</v>
       </c>
-      <c r="BO26" s="2">
+      <c r="BO26" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>19</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>37</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>25</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>31</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>31</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>30</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>34</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>23</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>25</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>25</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>23</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>17</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>27</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="1">
         <v>22</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="1">
         <v>21</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="1">
         <v>21</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>27</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="1">
         <v>23</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27" s="1">
         <v>15</v>
       </c>
-      <c r="U27" s="2">
+      <c r="U27" s="1">
         <v>18</v>
       </c>
-      <c r="V27" s="2">
+      <c r="V27" s="1">
         <v>14</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="1">
         <v>30</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="1">
         <v>40</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Y27" s="1">
         <v>10</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="1">
         <v>38</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AA27" s="1">
         <v>24</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AB27" s="1">
         <v>22</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AC27" s="1">
         <v>17</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="1">
         <v>32</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AE27" s="1">
         <v>24</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="1">
         <v>40</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="1">
         <v>44</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="1">
         <v>26</v>
       </c>
-      <c r="AI27" s="2">
+      <c r="AI27" s="1">
         <v>22</v>
       </c>
-      <c r="AJ27" s="2">
+      <c r="AJ27" s="1">
         <v>19</v>
       </c>
-      <c r="AK27">
+      <c r="AK27" s="1">
         <v>32</v>
       </c>
-      <c r="AL27" s="2">
+      <c r="AL27" s="1">
         <v>21</v>
       </c>
-      <c r="AM27">
+      <c r="AM27" s="1">
         <v>28</v>
       </c>
-      <c r="AN27" s="2">
+      <c r="AN27" s="1">
         <v>18</v>
       </c>
-      <c r="AO27" s="2">
+      <c r="AO27" s="1">
         <v>16</v>
       </c>
-      <c r="AP27" s="2">
+      <c r="AP27" s="1">
         <v>18</v>
       </c>
-      <c r="AQ27" s="2">
+      <c r="AQ27" s="1">
         <v>22</v>
       </c>
-      <c r="AR27" s="2">
+      <c r="AR27" s="1">
         <v>13</v>
       </c>
-      <c r="AS27">
+      <c r="AS27" s="1">
         <v>30</v>
       </c>
-      <c r="AT27">
+      <c r="AT27" s="1">
         <v>5</v>
       </c>
-      <c r="AU27">
+      <c r="AU27" s="1">
         <v>28</v>
       </c>
-      <c r="AV27">
+      <c r="AV27" s="1">
         <v>7</v>
       </c>
-      <c r="AW27">
+      <c r="AW27" s="1">
         <v>47</v>
       </c>
-      <c r="AX27">
+      <c r="AX27" s="1">
         <v>39</v>
       </c>
-      <c r="AY27">
+      <c r="AY27" s="1">
         <v>46</v>
       </c>
-      <c r="AZ27">
+      <c r="AZ27" s="1">
         <v>64</v>
       </c>
-      <c r="BA27">
+      <c r="BA27" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>22</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>22</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>66</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>22</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>10</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>27</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>17</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>17</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>14</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>27</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>18</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <v>11</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>22</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="1">
         <v>25</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="1">
         <v>28</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>23</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="1">
         <v>23</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="1">
         <v>8</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="1">
         <v>63</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="1">
         <v>24</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="1">
         <v>32</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29" s="1">
         <v>14</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="1">
         <v>44</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="1">
         <v>37</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="1">
         <v>31</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="1">
         <v>49</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="1">
         <v>27</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="Z29" s="1">
         <v>17</v>
       </c>
-      <c r="AA29" s="2">
+      <c r="AA29" s="1">
         <v>21</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" s="1">
         <v>36</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="1">
         <v>26</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29" s="1">
         <v>21</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" s="1">
         <v>26</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AF29" s="1">
         <v>18</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="1">
         <v>32</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" s="1">
         <v>33</v>
       </c>
-      <c r="AI29">
+      <c r="AI29" s="1">
         <v>31</v>
       </c>
-      <c r="AJ29" s="2">
+      <c r="AJ29" s="1">
         <v>15</v>
       </c>
-      <c r="AK29">
+      <c r="AK29" s="1">
         <v>38</v>
       </c>
-      <c r="AL29">
+      <c r="AL29" s="1">
         <v>28</v>
       </c>
-      <c r="AM29" s="2">
+      <c r="AM29" s="1">
         <v>23</v>
       </c>
-      <c r="AN29">
+      <c r="AN29" s="1">
         <v>29</v>
       </c>
-      <c r="AO29">
+      <c r="AO29" s="1">
         <v>49</v>
       </c>
-      <c r="AP29">
+      <c r="AP29" s="1">
         <v>26</v>
       </c>
-      <c r="AQ29" s="2">
+      <c r="AQ29" s="1">
         <v>20</v>
       </c>
-      <c r="AR29">
+      <c r="AR29" s="1">
         <v>27</v>
       </c>
-      <c r="AS29">
+      <c r="AS29" s="1">
         <v>31</v>
       </c>
-      <c r="AT29">
+      <c r="AT29" s="1">
         <v>25</v>
       </c>
-      <c r="AU29" s="2">
+      <c r="AU29" s="1">
         <v>24</v>
       </c>
-      <c r="AV29" s="2">
+      <c r="AV29" s="1">
         <v>23</v>
       </c>
-      <c r="AW29">
+      <c r="AW29" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>21</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>49</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>100</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>34</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>30</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>29</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>28</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>27</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>27</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>21</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>45</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>13</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>64</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>9</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>25</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>5</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>19</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>15</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>11</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>16</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>14</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <v>17</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>15</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>11</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>15</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>15</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>20</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>27</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>15</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>16</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>15</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>13</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>27</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>14</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>17</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>14</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>16</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>11</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>10</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>16</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>13</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>12</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>14</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>14</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>16</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>14</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>14</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>17</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>20</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>18</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>15</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>15</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>17</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>17</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>10</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>14</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>11</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>15</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>14</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>23</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>17</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>12</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1">
         <v>17</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="1">
         <v>14</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="1">
         <v>9</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>14</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>17</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>25</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>23</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>17</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>25</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>48</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>34</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <v>29</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1">
         <v>34</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1">
         <v>38</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <v>42</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="1">
         <v>30</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="1">
         <v>50</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="1">
         <v>58</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="1">
         <v>36</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="1">
         <v>39</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="1">
         <v>28</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="1">
         <v>27</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="1">
         <v>35</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="1">
         <v>30</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="1">
         <v>34</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="1">
         <v>46</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="1">
         <v>46</v>
       </c>
-      <c r="X43">
+      <c r="X43" s="1">
         <v>39</v>
       </c>
-      <c r="Y43">
+      <c r="Y43" s="1">
         <v>51</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="1">
         <v>46</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="1">
         <v>75</v>
       </c>
-      <c r="AB43">
+      <c r="AB43" s="1">
         <v>66</v>
       </c>
-      <c r="AC43" s="2">
+      <c r="AC43" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>45</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>28</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>35</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>41</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>43</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>56</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>37</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1">
         <v>38</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1">
         <v>50</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>52</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="1">
         <v>33</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="1">
         <v>44</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="1">
         <v>37</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="1">
         <v>72</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="1">
         <v>47</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>80</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>52</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>38</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>44</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>39</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>49</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>50</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="1">
         <v>56</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="1">
         <v>62</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
         <v>42</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="1">
         <v>54</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="1">
         <v>59</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="1">
         <v>35</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="1">
         <v>35</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="1">
         <v>32</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="1">
         <v>31</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="1">
         <v>37</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="1">
         <v>43</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="1">
         <v>48</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="1">
         <v>47</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="1">
         <v>38</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="1">
         <v>71</v>
       </c>
-      <c r="X45">
+      <c r="X45" s="1">
         <v>56</v>
       </c>
-      <c r="Y45">
+      <c r="Y45" s="1">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>51</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>25</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>36</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>54</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>47</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>71</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>53</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <v>59</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1">
         <v>41</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>42</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="1">
         <v>57</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="1">
         <v>50</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="1">
         <v>38</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="1">
         <v>31</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="1">
         <v>27</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="1">
         <v>33</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="1">
         <v>26</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="1">
         <v>40</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="1">
         <v>42</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="1">
         <v>31</v>
       </c>
-      <c r="V46">
+      <c r="V46" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>26</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>47</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>26</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>37</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>42</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>15</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>60</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>40</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>43</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>48</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="1">
         <v>30</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="1">
         <v>25</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="1">
         <v>52</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="1">
         <v>28</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="1">
         <v>41</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="1">
         <v>40</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="1">
         <v>34</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="1">
         <v>28</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="1">
         <v>40</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="1">
         <v>38</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="1">
         <v>40</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="1">
         <v>30</v>
       </c>
-      <c r="X47">
+      <c r="X47" s="1">
         <v>35</v>
       </c>
-      <c r="Y47">
+      <c r="Y47" s="1">
         <v>27</v>
       </c>
-      <c r="Z47">
+      <c r="Z47" s="1">
         <v>27</v>
       </c>
-      <c r="AA47">
+      <c r="AA47" s="1">
         <v>32</v>
       </c>
-      <c r="AB47">
+      <c r="AB47" s="1">
         <v>44</v>
       </c>
-      <c r="AC47">
+      <c r="AC47" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>32</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>29</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>31</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>25</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>21</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>23</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="1">
         <v>25</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
         <v>39</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1">
         <v>33</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="1">
         <v>21</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="1">
         <v>36</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="1">
         <v>21</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="1">
         <v>14</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="1">
         <v>23</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="1">
         <v>33</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>31</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>16</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>23</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>21</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>13</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>20</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>40</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <v>13</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="1">
         <v>27</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
         <v>33</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="1">
         <v>34</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="1">
         <v>31</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="1">
         <v>13</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="1">
         <v>40</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="1">
         <v>58</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="Q49" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>24</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>17</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>18</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>18</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>21</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>18</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>16</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>24</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>15</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <v>18</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="1">
         <v>33</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="1">
         <v>21</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>24</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>21</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>29</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>31</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>26</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>23</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>22</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>21</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>32</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>33</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>30</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>30</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>21</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>29</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>23</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>25</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>10</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>20</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>13</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>18</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>12</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>17</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>20</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>15</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>16</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>16</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>25</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>18</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>26</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>17</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>16</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>15</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>14</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>18</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>19</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>16</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>14</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="1">
         <v>20</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="1">
         <v>28</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="1">
         <v>13</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="1">
         <v>28</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="1">
         <v>39</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="1">
         <v>40</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="1">
         <v>29</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>27</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>26</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>18</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>17</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>25</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>25</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>22</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>19</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>21</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <v>22</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>18</v>
       </c>
-      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>10</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>29</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>24</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>21</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>13</v>
       </c>
-      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>15</v>
       </c>
-      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>25</v>
       </c>
-      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>20</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>29</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>22</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>11</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>14</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="1">
         <v>17</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="1">
         <v>17</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="1">
         <v>13</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="1">
         <v>21</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="1">
         <v>11</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="1">
         <v>19</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="1">
         <v>17</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N69" s="1">
         <v>18</v>
       </c>
-      <c r="O69" s="2">
+      <c r="O69" s="1">
         <v>20</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="1">
         <v>8</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="Q69" s="1">
         <v>21</v>
       </c>
-      <c r="R69" s="2">
+      <c r="R69" s="1">
         <v>18</v>
       </c>
-      <c r="S69" s="2">
+      <c r="S69" s="1">
         <v>24</v>
       </c>
-      <c r="T69" s="2">
+      <c r="T69" s="1">
         <v>21</v>
       </c>
-      <c r="U69" s="2">
+      <c r="U69" s="1">
         <v>15</v>
       </c>
-      <c r="V69">
+      <c r="V69" s="1">
         <v>27</v>
       </c>
-      <c r="W69" s="2">
+      <c r="W69" s="1">
         <v>21</v>
       </c>
     </row>

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53B75650-012A-4CB9-B674-7D8F7A3571D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE6867D3-4B63-4F8D-918B-60374EF9EE5E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1085,7 +1085,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BN26" sqref="BN26"/>
+      <selection pane="bottomRight" activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE6867D3-4B63-4F8D-918B-60374EF9EE5E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{791A778C-03B0-4F60-A029-A522EDC376B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
   <dimension ref="A1:BO69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK22" sqref="AK22"/>
+      <selection pane="bottomRight" activeCell="AS20" sqref="AS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{791A778C-03B0-4F60-A029-A522EDC376B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5D528F93-2DB1-4782-B67F-1504C4A58145}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
   <dimension ref="A1:BO69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS20" sqref="AS20"/>
+      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5D528F93-2DB1-4782-B67F-1504C4A58145}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E4E9E840-0423-4022-A8D3-939612B00AC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,15 +1082,15 @@
   <dimension ref="A1:BO69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
+      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="19" width="3" style="1" bestFit="1" customWidth="1"/>

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E4E9E840-0423-4022-A8D3-939612B00AC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{47CF5EF7-689E-4558-91B8-F321C1D40FA5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1085,7 +1085,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R14" sqref="R14"/>
+      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{47CF5EF7-689E-4558-91B8-F321C1D40FA5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9F358D5C-5A41-48A2-A58B-F9737A792E61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1082,10 +1082,10 @@
   <dimension ref="A1:BO69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z22" sqref="Z22"/>
+      <selection pane="bottomRight" activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,24 +3345,6 @@
       <c r="K18" s="1">
         <v>3</v>
       </c>
-      <c r="L18" s="1">
-        <v>17</v>
-      </c>
-      <c r="M18" s="1">
-        <v>8</v>
-      </c>
-      <c r="N18" s="1">
-        <v>30</v>
-      </c>
-      <c r="O18" s="1">
-        <v>16</v>
-      </c>
-      <c r="P18" s="1">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>10</v>
-      </c>
       <c r="AL18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4714,13 +4696,13 @@
         <v>49</v>
       </c>
       <c r="D30" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F30" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G30" s="1">
         <v>29</v>
@@ -4742,12 +4724,6 @@
       </c>
       <c r="M30" s="1">
         <v>13</v>
-      </c>
-      <c r="N30" s="1">
-        <v>64</v>
-      </c>
-      <c r="O30" s="1">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.25">
@@ -4805,12 +4781,9 @@
         <v>20</v>
       </c>
       <c r="C32" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1">
         <v>21</v>
       </c>
     </row>
@@ -5008,7 +4981,10 @@
         <v>17</v>
       </c>
       <c r="D42" s="1">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9F358D5C-5A41-48A2-A58B-F9737A792E61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8617C02F-B4F3-4C86-A0E2-A7A305327DAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +558,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -719,11 +725,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1082,10 +1090,10 @@
   <dimension ref="A1:BO69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU2" sqref="AU2"/>
+      <selection pane="bottomRight" activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1213,7 @@
       <c r="AI1" s="2">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="4">
         <v>35</v>
       </c>
       <c r="AK1" s="2">
@@ -1381,7 +1389,7 @@
       <c r="Z2" s="1">
         <v>34</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="5">
         <v>35</v>
       </c>
       <c r="AB2" s="1">
@@ -1390,17 +1398,17 @@
       <c r="AC2" s="1">
         <v>22</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="5">
         <v>35</v>
       </c>
       <c r="AE2" s="1">
         <v>43</v>
       </c>
       <c r="AF2" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AH2" s="1">
         <v>20</v>
@@ -1485,7 +1493,7 @@
       <c r="I3" s="1">
         <v>28</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="5">
         <v>35</v>
       </c>
       <c r="K3" s="1">
@@ -1554,16 +1562,16 @@
       <c r="AF3" s="1">
         <v>18</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AG3" s="5">
         <v>35</v>
       </c>
       <c r="AH3" s="1">
         <v>23</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AI3" s="5">
         <v>35</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="5">
         <v>35</v>
       </c>
       <c r="AK3" s="1">
@@ -1625,7 +1633,7 @@
       <c r="D4" s="1">
         <v>17</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>35</v>
       </c>
       <c r="F4" s="1">
@@ -1801,7 +1809,7 @@
       <c r="K5" s="1">
         <v>36</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="5">
         <v>35</v>
       </c>
       <c r="M5" s="1">
@@ -1816,7 +1824,7 @@
       <c r="P5" s="1">
         <v>41</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="5">
         <v>35</v>
       </c>
       <c r="R5" s="1">
@@ -1831,7 +1839,7 @@
       <c r="U5" s="1">
         <v>29</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="5">
         <v>35</v>
       </c>
       <c r="W5" s="1">
@@ -2102,7 +2110,7 @@
       <c r="H7" s="1">
         <v>26</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="5">
         <v>35</v>
       </c>
       <c r="J7" s="1">
@@ -2221,7 +2229,7 @@
       <c r="H8" s="1">
         <v>25</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="5">
         <v>35</v>
       </c>
       <c r="J8" s="1">
@@ -2411,7 +2419,7 @@
       <c r="O10" s="1">
         <v>52</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="5">
         <v>35</v>
       </c>
       <c r="Q10" s="1">
@@ -3416,7 +3424,7 @@
       <c r="I19" s="1">
         <v>22</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="5">
         <v>35</v>
       </c>
       <c r="K19" s="1">
@@ -3434,7 +3442,7 @@
       <c r="O19" s="1">
         <v>22</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="5">
         <v>35</v>
       </c>
       <c r="Q19" s="1">
@@ -3842,7 +3850,7 @@
       <c r="D22" s="1">
         <v>22</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="5">
         <v>35</v>
       </c>
       <c r="F22" s="1">
@@ -3994,7 +4002,7 @@
       <c r="C23" s="1">
         <v>22</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="5">
         <v>35</v>
       </c>
       <c r="E23" s="1">
@@ -4003,7 +4011,7 @@
       <c r="F23" s="1">
         <v>23</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="5">
         <v>35</v>
       </c>
       <c r="H23" s="1">
@@ -4027,7 +4035,7 @@
       <c r="N23" s="1">
         <v>25</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="5">
         <v>35</v>
       </c>
       <c r="P23" s="1">
@@ -4054,7 +4062,7 @@
       <c r="W23" s="1">
         <v>29</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="5">
         <v>35</v>
       </c>
       <c r="Y23" s="1">
@@ -4681,7 +4689,7 @@
       <c r="AV29" s="1">
         <v>23</v>
       </c>
-      <c r="AW29" s="1">
+      <c r="AW29" s="5">
         <v>35</v>
       </c>
     </row>
@@ -5042,7 +5050,7 @@
       <c r="R43" s="1">
         <v>27</v>
       </c>
-      <c r="S43" s="1">
+      <c r="S43" s="5">
         <v>35</v>
       </c>
       <c r="T43" s="1">
@@ -5086,7 +5094,7 @@
       <c r="C44" s="1">
         <v>28</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="5">
         <v>35</v>
       </c>
       <c r="E44" s="1">
@@ -5169,10 +5177,10 @@
       <c r="M45" s="1">
         <v>59</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="5">
         <v>35</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="5">
         <v>35</v>
       </c>
       <c r="P45" s="1">
@@ -5344,7 +5352,7 @@
       <c r="W47" s="1">
         <v>30</v>
       </c>
-      <c r="X47" s="1">
+      <c r="X47" s="5">
         <v>35</v>
       </c>
       <c r="Y47" s="1">

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8617C02F-B4F3-4C86-A0E2-A7A305327DAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E893C5-3461-44E4-8D18-40A390D38040}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="70">
   <si>
     <t>Book Name</t>
   </si>
@@ -236,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,8 +377,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +565,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -725,13 +726,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1090,10 +1090,10 @@
   <dimension ref="A1:BO69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE31" sqref="AE31"/>
+      <selection pane="bottomRight" activeCell="BD1" sqref="BD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1213,7 @@
       <c r="AI1" s="2">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4">
+      <c r="AJ1" s="2">
         <v>35</v>
       </c>
       <c r="AK1" s="2">
@@ -1264,7 +1264,7 @@
       <c r="AZ1" s="2">
         <v>51</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="4">
         <v>52</v>
       </c>
       <c r="BB1" s="2">
@@ -1389,7 +1389,7 @@
       <c r="Z2" s="1">
         <v>34</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="1">
         <v>35</v>
       </c>
       <c r="AB2" s="1">
@@ -1398,7 +1398,7 @@
       <c r="AC2" s="1">
         <v>22</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" s="1">
         <v>35</v>
       </c>
       <c r="AE2" s="1">
@@ -1493,7 +1493,7 @@
       <c r="I3" s="1">
         <v>28</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="1">
         <v>35</v>
       </c>
       <c r="K3" s="1">
@@ -1562,16 +1562,16 @@
       <c r="AF3" s="1">
         <v>18</v>
       </c>
-      <c r="AG3" s="5">
+      <c r="AG3" s="1">
         <v>35</v>
       </c>
       <c r="AH3" s="1">
         <v>23</v>
       </c>
-      <c r="AI3" s="5">
+      <c r="AI3" s="1">
         <v>35</v>
       </c>
-      <c r="AJ3" s="5">
+      <c r="AJ3" s="1">
         <v>35</v>
       </c>
       <c r="AK3" s="1">
@@ -1633,7 +1633,7 @@
       <c r="D4" s="1">
         <v>17</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>35</v>
       </c>
       <c r="F4" s="1">
@@ -1809,7 +1809,7 @@
       <c r="K5" s="1">
         <v>36</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="1">
         <v>35</v>
       </c>
       <c r="M5" s="1">
@@ -1824,7 +1824,7 @@
       <c r="P5" s="1">
         <v>41</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="1">
         <v>35</v>
       </c>
       <c r="R5" s="1">
@@ -1839,7 +1839,7 @@
       <c r="U5" s="1">
         <v>29</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="1">
         <v>35</v>
       </c>
       <c r="W5" s="1">
@@ -2027,7 +2027,7 @@
       <c r="AF6" s="1">
         <v>30</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AG6" s="3">
         <v>52</v>
       </c>
       <c r="AH6" s="1">
@@ -2110,7 +2110,7 @@
       <c r="H7" s="1">
         <v>26</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="1">
         <v>35</v>
       </c>
       <c r="J7" s="1">
@@ -2229,7 +2229,7 @@
       <c r="H8" s="1">
         <v>25</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="1">
         <v>35</v>
       </c>
       <c r="J8" s="1">
@@ -2416,10 +2416,10 @@
       <c r="N10" s="1">
         <v>23</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="3">
         <v>52</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="1">
         <v>35</v>
       </c>
       <c r="Q10" s="1">
@@ -3424,7 +3424,7 @@
       <c r="I19" s="1">
         <v>22</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="1">
         <v>35</v>
       </c>
       <c r="K19" s="1">
@@ -3442,7 +3442,7 @@
       <c r="O19" s="1">
         <v>22</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="1">
         <v>35</v>
       </c>
       <c r="Q19" s="1">
@@ -3850,7 +3850,7 @@
       <c r="D22" s="1">
         <v>22</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="1">
         <v>35</v>
       </c>
       <c r="F22" s="1">
@@ -4002,7 +4002,7 @@
       <c r="C23" s="1">
         <v>22</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="1">
         <v>35</v>
       </c>
       <c r="E23" s="1">
@@ -4011,7 +4011,7 @@
       <c r="F23" s="1">
         <v>23</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="1">
         <v>35</v>
       </c>
       <c r="H23" s="1">
@@ -4035,7 +4035,7 @@
       <c r="N23" s="1">
         <v>25</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="1">
         <v>35</v>
       </c>
       <c r="P23" s="1">
@@ -4062,7 +4062,7 @@
       <c r="W23" s="1">
         <v>29</v>
       </c>
-      <c r="X23" s="5">
+      <c r="X23" s="1">
         <v>35</v>
       </c>
       <c r="Y23" s="1">
@@ -4689,7 +4689,7 @@
       <c r="AV29" s="1">
         <v>23</v>
       </c>
-      <c r="AW29" s="5">
+      <c r="AW29" s="1">
         <v>35</v>
       </c>
     </row>
@@ -5050,7 +5050,7 @@
       <c r="R43" s="1">
         <v>27</v>
       </c>
-      <c r="S43" s="5">
+      <c r="S43" s="1">
         <v>35</v>
       </c>
       <c r="T43" s="1">
@@ -5094,7 +5094,7 @@
       <c r="C44" s="1">
         <v>28</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="1">
         <v>35</v>
       </c>
       <c r="E44" s="1">
@@ -5115,7 +5115,7 @@
       <c r="J44" s="1">
         <v>50</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="3">
         <v>52</v>
       </c>
       <c r="L44" s="1">
@@ -5144,7 +5144,7 @@
       <c r="B45" s="1">
         <v>80</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="3">
         <v>52</v>
       </c>
       <c r="D45" s="1">
@@ -5177,10 +5177,10 @@
       <c r="M45" s="1">
         <v>59</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="1">
         <v>35</v>
       </c>
-      <c r="O45" s="5">
+      <c r="O45" s="1">
         <v>35</v>
       </c>
       <c r="P45" s="1">
@@ -5322,7 +5322,7 @@
       <c r="M47" s="1">
         <v>25</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N47" s="3">
         <v>52</v>
       </c>
       <c r="O47" s="1">
@@ -5352,7 +5352,7 @@
       <c r="W47" s="1">
         <v>30</v>
       </c>
-      <c r="X47" s="5">
+      <c r="X47" s="1">
         <v>35</v>
       </c>
       <c r="Y47" s="1">

--- a/ref/Bible_data_ch_verses.xlsx
+++ b/ref/Bible_data_ch_verses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal_website\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E893C5-3461-44E4-8D18-40A390D38040}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0B9BCA-69BA-4899-B3FA-3A48093963B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="70">
   <si>
     <t>Book Name</t>
   </si>
@@ -1093,7 +1093,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BD1" sqref="BD1"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
